--- a/ISORC2017/evaluation/Adapter.xlsx
+++ b/ISORC2017/evaluation/Adapter.xlsx
@@ -4,58 +4,48 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Sheet1!$A$1:$A$1</definedName>
-    <definedName name="_xlchart.1" hidden="1">Sheet1!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.10" hidden="1">Sheet1!$A$1:$A$1</definedName>
-    <definedName name="_xlchart.11" hidden="1">Sheet1!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.12" hidden="1">Sheet1!$C$1:$C$1</definedName>
-    <definedName name="_xlchart.13" hidden="1">Sheet1!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.14" hidden="1">Sheet1!$D$1:$D$1</definedName>
-    <definedName name="_xlchart.15" hidden="1">Sheet1!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.16" hidden="1">Sheet1!$E$1:$E$1</definedName>
-    <definedName name="_xlchart.17" hidden="1">Sheet1!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.18" hidden="1">Sheet1!$F$1:$F$1</definedName>
-    <definedName name="_xlchart.19" hidden="1">Sheet1!$F$2:$F$9</definedName>
-    <definedName name="_xlchart.2" hidden="1">Sheet1!$C$1:$C$1</definedName>
-    <definedName name="_xlchart.20" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.21" hidden="1">Sheet1!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.22" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.23" hidden="1">Sheet1!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.24" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.25" hidden="1">Sheet1!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.26" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.27" hidden="1">Sheet1!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.28" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.29" hidden="1">Sheet1!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.3" hidden="1">Sheet1!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.30" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.31" hidden="1">Sheet1!$F$2:$F$9</definedName>
-    <definedName name="_xlchart.32" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.33" hidden="1">Sheet1!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.34" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.35" hidden="1">Sheet1!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.36" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.37" hidden="1">Sheet1!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.38" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.39" hidden="1">Sheet1!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.4" hidden="1">Sheet1!$D$1:$D$1</definedName>
-    <definedName name="_xlchart.40" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.41" hidden="1">Sheet1!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.42" hidden="1">Sheet1!$F$1</definedName>
-    <definedName name="_xlchart.43" hidden="1">Sheet1!$F$2:$F$9</definedName>
-    <definedName name="_xlchart.5" hidden="1">Sheet1!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.6" hidden="1">Sheet1!$E$1:$E$1</definedName>
-    <definedName name="_xlchart.7" hidden="1">Sheet1!$E$2:$E$9</definedName>
-    <definedName name="_xlchart.8" hidden="1">Sheet1!$F$1:$F$1</definedName>
-    <definedName name="_xlchart.9" hidden="1">Sheet1!$F$2:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$317</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$371</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$371</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$2:$C$371</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$371</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$A$371</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$2:$B$371</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$2:$C$371</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$2:$D$371</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$A$2:$A$371</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$B$2:$B$371</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$C$2:$C$371</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$371</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$2:$D$371</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$371</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$371</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$371</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,25 +55,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>with</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>without</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>tcp_snd_dat</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tcp_recv_dat</t>
+    <t>tcp_rcv_dat [Adapter]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>without</t>
+    <t>tcp_snd_dat [Adapter]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tcp_rcv_dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tcp_snd_dat [Adapter]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -91,6 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,9 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -147,48 +144,38 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.33</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.35</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.37</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.39</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.41</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.43</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{CB6C16B7-4A93-4787-A03D-1637CEC657C1}">
+        <cx:series layoutId="boxWhisker" uniqueId="{25A90DED-2B23-4E2A-8148-46DC28E2AEC0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.32</cx:f>
-              <cx:v>tcp_snd_dat</cx:v>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>tcp_rcv_dat</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -197,11 +184,11 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{EF0CB601-3A24-4936-960F-F33F8CAF2FBB}">
+        <cx:series layoutId="boxWhisker" uniqueId="{8E301ACF-7DB1-4716-9E24-DB666295D3DD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.34</cx:f>
-              <cx:v>without</cx:v>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>tcp_rcv_dat [Adapter]</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="1"/>
@@ -210,11 +197,11 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{B82E855D-90C7-4824-9FA9-A57EEFB969A4}">
+        <cx:series layoutId="boxWhisker" uniqueId="{4D75B551-3B71-41A3-94F9-9146F0EA218D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.36</cx:f>
-              <cx:v>with</cx:v>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>tcp_snd_dat</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="2"/>
@@ -223,40 +210,14 @@
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{A730947F-4EB8-406D-A256-A6040717F007}">
+        <cx:series layoutId="boxWhisker" uniqueId="{87AD09F3-481B-4F42-86D6-0DF3A9336841}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.38</cx:f>
-              <cx:v>tcp_recv_dat</cx:v>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>tcp_snd_dat [Adapter]</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{0FABE084-AA9C-4493-BABA-E8D3B0E20665}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.40</cx:f>
-              <cx:v>without</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5CD3B6E8-E347-40E8-9F9F-042AA05427D0}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.42</cx:f>
-              <cx:v>with</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="5"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
@@ -269,12 +230,30 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Execution time [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP"/>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
   </cx:chart>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
 </cx:chartSpace>
 </file>
 
@@ -808,22 +787,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="グラフ 3"/>
+            <xdr:cNvPr id="2" name="グラフ 1"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -832,7 +811,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1140,147 +1119,6803 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>31</v>
+      </c>
+      <c r="L6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2">
+        <v>31</v>
+      </c>
+      <c r="L8" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2">
+        <v>29</v>
+      </c>
+      <c r="L10" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2">
+        <v>29</v>
+      </c>
+      <c r="L11" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2">
+        <v>28</v>
+      </c>
+      <c r="L13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2">
+        <v>28</v>
+      </c>
+      <c r="L14" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2">
+        <v>28</v>
+      </c>
+      <c r="L15" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2">
+        <v>22</v>
+      </c>
+      <c r="I18" s="2">
+        <v>27</v>
+      </c>
+      <c r="L18" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2">
+        <v>22</v>
+      </c>
+      <c r="I19" s="2">
+        <v>27</v>
+      </c>
+      <c r="L19" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2">
+        <v>21</v>
+      </c>
+      <c r="I20" s="2">
+        <v>27</v>
+      </c>
+      <c r="L20" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2">
+        <v>21</v>
+      </c>
+      <c r="I21" s="2">
+        <v>27</v>
+      </c>
+      <c r="L21" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>24</v>
+      </c>
+      <c r="G22" s="2">
+        <v>21</v>
+      </c>
+      <c r="I22" s="2">
+        <v>27</v>
+      </c>
+      <c r="L22" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2">
+        <v>27</v>
+      </c>
+      <c r="L23" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2">
+        <v>27</v>
+      </c>
+      <c r="L24" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2">
+        <v>27</v>
+      </c>
+      <c r="L25" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2">
+        <v>27</v>
+      </c>
+      <c r="L26" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2">
+        <v>21</v>
+      </c>
+      <c r="C27" s="2">
+        <v>24</v>
+      </c>
+      <c r="D27" s="2">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2">
+        <v>21</v>
+      </c>
+      <c r="I27" s="2">
+        <v>27</v>
+      </c>
+      <c r="L27" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>24</v>
+      </c>
+      <c r="G28" s="2">
+        <v>21</v>
+      </c>
+      <c r="I28" s="2">
+        <v>27</v>
+      </c>
+      <c r="L28" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2">
+        <v>21</v>
+      </c>
+      <c r="I29" s="2">
+        <v>27</v>
+      </c>
+      <c r="L29" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2">
+        <v>24</v>
+      </c>
+      <c r="D30" s="2">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2">
+        <v>21</v>
+      </c>
+      <c r="I30" s="2">
+        <v>26</v>
+      </c>
+      <c r="L30" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2">
+        <v>21</v>
+      </c>
+      <c r="I31" s="2">
+        <v>26</v>
+      </c>
+      <c r="L31" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20</v>
+      </c>
+      <c r="C32" s="2">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2">
+        <v>26</v>
+      </c>
+      <c r="L32" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2">
+        <v>23</v>
+      </c>
+      <c r="G33" s="2">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2">
+        <v>26</v>
+      </c>
+      <c r="L33" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2">
+        <v>20</v>
+      </c>
+      <c r="C34" s="2">
+        <v>23</v>
+      </c>
+      <c r="D34" s="2">
+        <v>23</v>
+      </c>
+      <c r="G34" s="2">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2">
+        <v>26</v>
+      </c>
+      <c r="L34" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>21</v>
+      </c>
+      <c r="B35" s="2">
+        <v>20</v>
+      </c>
+      <c r="C35" s="2">
+        <v>23</v>
+      </c>
+      <c r="D35" s="2">
+        <v>23</v>
+      </c>
+      <c r="G35" s="2">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2">
+        <v>26</v>
+      </c>
+      <c r="L35" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>21</v>
+      </c>
+      <c r="B36" s="2">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2">
+        <v>23</v>
+      </c>
+      <c r="D36" s="2">
+        <v>23</v>
+      </c>
+      <c r="G36" s="2">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2">
+        <v>26</v>
+      </c>
+      <c r="L36" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2">
+        <v>23</v>
+      </c>
+      <c r="D37" s="2">
+        <v>23</v>
+      </c>
+      <c r="G37" s="2">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2">
+        <v>26</v>
+      </c>
+      <c r="L37" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>23</v>
+      </c>
+      <c r="G38" s="2">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2">
+        <v>26</v>
+      </c>
+      <c r="L38" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2">
+        <v>23</v>
+      </c>
+      <c r="G39" s="2">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2">
+        <v>26</v>
+      </c>
+      <c r="L39" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>20</v>
+      </c>
+      <c r="B40" s="2">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2">
+        <v>23</v>
+      </c>
+      <c r="G40" s="2">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2">
+        <v>26</v>
+      </c>
+      <c r="L40" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>20</v>
+      </c>
+      <c r="B41" s="2">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2">
+        <v>23</v>
+      </c>
+      <c r="G41" s="2">
+        <v>20</v>
+      </c>
+      <c r="I41" s="2">
+        <v>26</v>
+      </c>
+      <c r="L41" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2">
+        <v>20</v>
+      </c>
+      <c r="C42" s="2">
+        <v>23</v>
+      </c>
+      <c r="D42" s="2">
+        <v>23</v>
+      </c>
+      <c r="G42" s="2">
+        <v>20</v>
+      </c>
+      <c r="I42" s="2">
+        <v>26</v>
+      </c>
+      <c r="L42" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>20</v>
+      </c>
+      <c r="B43" s="2">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2">
+        <v>23</v>
+      </c>
+      <c r="G43" s="2">
+        <v>20</v>
+      </c>
+      <c r="I43" s="2">
+        <v>26</v>
+      </c>
+      <c r="L43" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2">
+        <v>23</v>
+      </c>
+      <c r="D44" s="2">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2">
+        <v>19</v>
+      </c>
+      <c r="I44" s="2">
+        <v>25</v>
+      </c>
+      <c r="L44" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2">
+        <v>22</v>
+      </c>
+      <c r="G45" s="2">
+        <v>19</v>
+      </c>
+      <c r="I45" s="2">
+        <v>25</v>
+      </c>
+      <c r="L45" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2">
+        <v>22</v>
+      </c>
+      <c r="D46" s="2">
+        <v>22</v>
+      </c>
+      <c r="G46" s="2">
+        <v>19</v>
+      </c>
+      <c r="I46" s="2">
+        <v>25</v>
+      </c>
+      <c r="L46" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2">
+        <v>19</v>
+      </c>
+      <c r="C47" s="2">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2">
+        <v>22</v>
+      </c>
+      <c r="G47" s="2">
+        <v>19</v>
+      </c>
+      <c r="I47" s="2">
+        <v>25</v>
+      </c>
+      <c r="L47" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2">
+        <v>22</v>
+      </c>
+      <c r="D48" s="2">
+        <v>22</v>
+      </c>
+      <c r="G48" s="2">
+        <v>19</v>
+      </c>
+      <c r="I48" s="2">
+        <v>24</v>
+      </c>
+      <c r="L48" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2">
+        <v>19</v>
+      </c>
+      <c r="I49" s="2">
+        <v>24</v>
+      </c>
+      <c r="L49" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2">
+        <v>22</v>
+      </c>
+      <c r="G50" s="2">
+        <v>19</v>
+      </c>
+      <c r="I50" s="2">
+        <v>24</v>
+      </c>
+      <c r="L50" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="2">
+        <v>20</v>
+      </c>
+      <c r="B51" s="2">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2">
+        <v>22</v>
+      </c>
+      <c r="G51" s="2">
+        <v>19</v>
+      </c>
+      <c r="I51" s="2">
+        <v>24</v>
+      </c>
+      <c r="L51" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="2">
+        <v>20</v>
+      </c>
+      <c r="B52" s="2">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2">
+        <v>22</v>
+      </c>
+      <c r="G52" s="2">
+        <v>19</v>
+      </c>
+      <c r="I52" s="2">
+        <v>23</v>
+      </c>
+      <c r="L52" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="2">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2">
+        <v>22</v>
+      </c>
+      <c r="G53" s="2">
+        <v>19</v>
+      </c>
+      <c r="I53" s="2">
+        <v>23</v>
+      </c>
+      <c r="L53" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="2">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2">
+        <v>21</v>
+      </c>
+      <c r="D54" s="2">
+        <v>22</v>
+      </c>
+      <c r="G54" s="2">
+        <v>19</v>
+      </c>
+      <c r="I54" s="2">
+        <v>22</v>
+      </c>
+      <c r="L54" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="2">
+        <v>20</v>
+      </c>
+      <c r="B55" s="2">
+        <v>19</v>
+      </c>
+      <c r="C55" s="2">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2">
+        <v>19</v>
+      </c>
+      <c r="I55" s="2">
+        <v>22</v>
+      </c>
+      <c r="L55" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="2">
+        <v>19</v>
+      </c>
+      <c r="B56" s="2">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2">
+        <v>22</v>
+      </c>
+      <c r="G56" s="2">
+        <v>18</v>
+      </c>
+      <c r="I56" s="2">
+        <v>22</v>
+      </c>
+      <c r="L56" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="2">
+        <v>19</v>
+      </c>
+      <c r="B57" s="2">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2">
+        <v>21</v>
+      </c>
+      <c r="D57" s="2">
+        <v>22</v>
+      </c>
+      <c r="G57" s="2">
+        <v>18</v>
+      </c>
+      <c r="I57" s="2">
+        <v>22</v>
+      </c>
+      <c r="L57" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="2">
+        <v>19</v>
+      </c>
+      <c r="B58" s="2">
+        <v>18</v>
+      </c>
+      <c r="C58" s="2">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2">
+        <v>22</v>
+      </c>
+      <c r="G58" s="2">
+        <v>18</v>
+      </c>
+      <c r="I58" s="2">
+        <v>22</v>
+      </c>
+      <c r="L58" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="2">
+        <v>19</v>
+      </c>
+      <c r="B59" s="2">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2">
+        <v>21</v>
+      </c>
+      <c r="D59" s="2">
+        <v>22</v>
+      </c>
+      <c r="G59" s="2">
+        <v>18</v>
+      </c>
+      <c r="I59" s="2">
+        <v>22</v>
+      </c>
+      <c r="L59" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="2">
+        <v>18</v>
+      </c>
+      <c r="B60" s="2">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2">
+        <v>20</v>
+      </c>
+      <c r="D60" s="2">
+        <v>22</v>
+      </c>
+      <c r="G60" s="2">
+        <v>18</v>
+      </c>
+      <c r="I60" s="2">
+        <v>22</v>
+      </c>
+      <c r="L60" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="2">
+        <v>18</v>
+      </c>
+      <c r="B61" s="2">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2">
+        <v>22</v>
+      </c>
+      <c r="G61" s="2">
+        <v>18</v>
+      </c>
+      <c r="I61" s="2">
+        <v>22</v>
+      </c>
+      <c r="L61" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="2">
+        <v>18</v>
+      </c>
+      <c r="B62" s="2">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2">
+        <v>20</v>
+      </c>
+      <c r="D62" s="2">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2">
+        <v>18</v>
+      </c>
+      <c r="I62" s="2">
+        <v>21</v>
+      </c>
+      <c r="L62" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="2">
+        <v>18</v>
+      </c>
+      <c r="B63" s="2">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2">
+        <v>20</v>
+      </c>
+      <c r="D63" s="2">
+        <v>22</v>
+      </c>
+      <c r="G63" s="2">
+        <v>18</v>
+      </c>
+      <c r="I63" s="2">
+        <v>21</v>
+      </c>
+      <c r="L63" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="2">
+        <v>18</v>
+      </c>
+      <c r="B64" s="2">
+        <v>17</v>
+      </c>
+      <c r="C64" s="2">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2">
+        <v>21</v>
+      </c>
+      <c r="G64" s="2">
+        <v>17</v>
+      </c>
+      <c r="I64" s="2">
+        <v>21</v>
+      </c>
+      <c r="L64" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="2">
+        <v>18</v>
+      </c>
+      <c r="B65" s="2">
+        <v>17</v>
+      </c>
+      <c r="C65" s="2">
+        <v>20</v>
+      </c>
+      <c r="D65" s="2">
+        <v>21</v>
+      </c>
+      <c r="G65" s="2">
+        <v>17</v>
+      </c>
+      <c r="I65" s="2">
+        <v>21</v>
+      </c>
+      <c r="L65" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="2">
+        <v>18</v>
+      </c>
+      <c r="B66" s="2">
+        <v>17</v>
+      </c>
+      <c r="C66" s="2">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2">
+        <v>21</v>
+      </c>
+      <c r="G66" s="2">
+        <v>17</v>
+      </c>
+      <c r="I66" s="2">
+        <v>21</v>
+      </c>
+      <c r="L66" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="2">
+        <v>18</v>
+      </c>
+      <c r="B67" s="2">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2">
+        <v>21</v>
+      </c>
+      <c r="G67" s="2">
+        <v>17</v>
+      </c>
+      <c r="I67" s="2">
+        <v>21</v>
+      </c>
+      <c r="L67" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="2">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2">
+        <v>21</v>
+      </c>
+      <c r="G68" s="2">
+        <v>17</v>
+      </c>
+      <c r="I68" s="2">
+        <v>21</v>
+      </c>
+      <c r="L68" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="2">
+        <v>18</v>
+      </c>
+      <c r="B69" s="2">
+        <v>17</v>
+      </c>
+      <c r="C69" s="2">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2">
+        <v>21</v>
+      </c>
+      <c r="G69" s="2">
+        <v>17</v>
+      </c>
+      <c r="I69" s="2">
+        <v>21</v>
+      </c>
+      <c r="L69" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>17</v>
+      </c>
+      <c r="B70" s="2">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2">
+        <v>21</v>
+      </c>
+      <c r="G70" s="2">
+        <v>17</v>
+      </c>
+      <c r="I70" s="2">
+        <v>21</v>
+      </c>
+      <c r="L70" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="2">
+        <v>17</v>
+      </c>
+      <c r="B71" s="2">
+        <v>17</v>
+      </c>
+      <c r="C71" s="2">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2">
+        <v>21</v>
+      </c>
+      <c r="G71" s="2">
+        <v>17</v>
+      </c>
+      <c r="I71" s="2">
+        <v>21</v>
+      </c>
+      <c r="L71" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="2">
+        <v>17</v>
+      </c>
+      <c r="B72" s="2">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2">
+        <v>21</v>
+      </c>
+      <c r="G72" s="2">
+        <v>16</v>
+      </c>
+      <c r="I72" s="2">
+        <v>20</v>
+      </c>
+      <c r="L72" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>17</v>
+      </c>
+      <c r="B73" s="2">
+        <v>16</v>
+      </c>
+      <c r="C73" s="2">
+        <v>19</v>
+      </c>
+      <c r="D73" s="2">
+        <v>21</v>
+      </c>
+      <c r="G73" s="2">
+        <v>16</v>
+      </c>
+      <c r="I73" s="2">
+        <v>20</v>
+      </c>
+      <c r="L73" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="2">
+        <v>17</v>
+      </c>
+      <c r="B74" s="2">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2">
+        <v>20</v>
+      </c>
+      <c r="G74" s="2">
+        <v>16</v>
+      </c>
+      <c r="I74" s="2">
+        <v>20</v>
+      </c>
+      <c r="L74" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="2">
+        <v>17</v>
+      </c>
+      <c r="B75" s="2">
+        <v>16</v>
+      </c>
+      <c r="C75" s="2">
+        <v>19</v>
+      </c>
+      <c r="D75" s="2">
+        <v>20</v>
+      </c>
+      <c r="G75" s="2">
+        <v>16</v>
+      </c>
+      <c r="I75" s="2">
+        <v>20</v>
+      </c>
+      <c r="L75" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
+        <v>17</v>
+      </c>
+      <c r="B76" s="2">
+        <v>16</v>
+      </c>
+      <c r="C76" s="2">
+        <v>19</v>
+      </c>
+      <c r="D76" s="2">
+        <v>20</v>
+      </c>
+      <c r="G76" s="2">
+        <v>16</v>
+      </c>
+      <c r="I76" s="2">
+        <v>20</v>
+      </c>
+      <c r="L76" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2">
+        <v>16</v>
+      </c>
+      <c r="C77" s="2">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2">
+        <v>20</v>
+      </c>
+      <c r="G77" s="2">
+        <v>16</v>
+      </c>
+      <c r="I77" s="2">
+        <v>20</v>
+      </c>
+      <c r="L77" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>17</v>
+      </c>
+      <c r="B78" s="2">
+        <v>16</v>
+      </c>
+      <c r="C78" s="2">
+        <v>19</v>
+      </c>
+      <c r="D78" s="2">
+        <v>20</v>
+      </c>
+      <c r="G78" s="2">
+        <v>16</v>
+      </c>
+      <c r="I78" s="2">
+        <v>20</v>
+      </c>
+      <c r="L78" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>17</v>
+      </c>
+      <c r="B79" s="2">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2">
+        <v>20</v>
+      </c>
+      <c r="G79" s="2">
+        <v>16</v>
+      </c>
+      <c r="I79" s="2">
+        <v>20</v>
+      </c>
+      <c r="L79" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>16</v>
+      </c>
+      <c r="B80" s="2">
+        <v>16</v>
+      </c>
+      <c r="C80" s="2">
+        <v>18</v>
+      </c>
+      <c r="D80" s="2">
+        <v>20</v>
+      </c>
+      <c r="G80" s="2">
+        <v>16</v>
+      </c>
+      <c r="I80" s="2">
+        <v>20</v>
+      </c>
+      <c r="L80" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>16</v>
+      </c>
+      <c r="B81" s="2">
+        <v>16</v>
+      </c>
+      <c r="C81" s="2">
+        <v>18</v>
+      </c>
+      <c r="D81" s="2">
+        <v>20</v>
+      </c>
+      <c r="G81" s="2">
+        <v>16</v>
+      </c>
+      <c r="I81" s="2">
+        <v>20</v>
+      </c>
+      <c r="L81" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A82" s="2">
+        <v>16</v>
+      </c>
+      <c r="B82" s="2">
+        <v>16</v>
+      </c>
+      <c r="C82" s="2">
+        <v>18</v>
+      </c>
+      <c r="D82" s="2">
+        <v>20</v>
+      </c>
+      <c r="G82" s="2">
+        <v>16</v>
+      </c>
+      <c r="I82" s="2">
+        <v>20</v>
+      </c>
+      <c r="L82" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A83" s="2">
+        <v>16</v>
+      </c>
+      <c r="B83" s="2">
+        <v>16</v>
+      </c>
+      <c r="C83" s="2">
+        <v>18</v>
+      </c>
+      <c r="D83" s="2">
+        <v>20</v>
+      </c>
+      <c r="G83" s="2">
+        <v>16</v>
+      </c>
+      <c r="I83" s="2">
+        <v>20</v>
+      </c>
+      <c r="L83" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A84" s="2">
+        <v>16</v>
+      </c>
+      <c r="B84" s="2">
+        <v>16</v>
+      </c>
+      <c r="C84" s="2">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2">
+        <v>20</v>
+      </c>
+      <c r="G84" s="2">
+        <v>16</v>
+      </c>
+      <c r="I84" s="2">
+        <v>20</v>
+      </c>
+      <c r="L84" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A85" s="2">
+        <v>16</v>
+      </c>
+      <c r="B85" s="2">
+        <v>16</v>
+      </c>
+      <c r="C85" s="2">
+        <v>18</v>
+      </c>
+      <c r="D85" s="2">
+        <v>20</v>
+      </c>
+      <c r="G85" s="2">
+        <v>16</v>
+      </c>
+      <c r="I85" s="2">
+        <v>20</v>
+      </c>
+      <c r="L85" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A86" s="2">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2">
+        <v>16</v>
+      </c>
+      <c r="C86" s="2">
+        <v>18</v>
+      </c>
+      <c r="D86" s="2">
+        <v>20</v>
+      </c>
+      <c r="G86" s="2">
+        <v>16</v>
+      </c>
+      <c r="I86" s="2">
+        <v>20</v>
+      </c>
+      <c r="L86" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A87" s="2">
+        <v>16</v>
+      </c>
+      <c r="B87" s="2">
+        <v>16</v>
+      </c>
+      <c r="C87" s="2">
+        <v>18</v>
+      </c>
+      <c r="D87" s="2">
+        <v>20</v>
+      </c>
+      <c r="G87" s="2">
+        <v>16</v>
+      </c>
+      <c r="I87" s="2">
+        <v>20</v>
+      </c>
+      <c r="L87" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A88" s="2">
+        <v>16</v>
+      </c>
+      <c r="B88" s="2">
+        <v>16</v>
+      </c>
+      <c r="C88" s="2">
+        <v>18</v>
+      </c>
+      <c r="D88" s="2">
+        <v>19</v>
+      </c>
+      <c r="G88" s="2">
+        <v>16</v>
+      </c>
+      <c r="I88" s="2">
+        <v>20</v>
+      </c>
+      <c r="L88" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>16</v>
+      </c>
+      <c r="B89" s="2">
+        <v>16</v>
+      </c>
+      <c r="C89" s="2">
+        <v>18</v>
+      </c>
+      <c r="D89" s="2">
+        <v>19</v>
+      </c>
+      <c r="G89" s="2">
+        <v>16</v>
+      </c>
+      <c r="I89" s="2">
+        <v>20</v>
+      </c>
+      <c r="L89" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A90" s="2">
+        <v>16</v>
+      </c>
+      <c r="B90" s="2">
+        <v>15</v>
+      </c>
+      <c r="C90" s="2">
+        <v>18</v>
+      </c>
+      <c r="D90" s="2">
+        <v>19</v>
+      </c>
+      <c r="G90" s="2">
+        <v>15</v>
+      </c>
+      <c r="I90" s="2">
+        <v>20</v>
+      </c>
+      <c r="L90" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A91" s="2">
+        <v>16</v>
+      </c>
+      <c r="B91" s="2">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2">
+        <v>18</v>
+      </c>
+      <c r="D91" s="2">
+        <v>19</v>
+      </c>
+      <c r="G91" s="2">
+        <v>15</v>
+      </c>
+      <c r="I91" s="2">
+        <v>20</v>
+      </c>
+      <c r="L91" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
+        <v>16</v>
+      </c>
+      <c r="B92" s="2">
+        <v>15</v>
+      </c>
+      <c r="C92" s="2">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2">
+        <v>19</v>
+      </c>
+      <c r="G92" s="2">
+        <v>15</v>
+      </c>
+      <c r="I92" s="2">
+        <v>20</v>
+      </c>
+      <c r="L92" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A93" s="2">
+        <v>16</v>
+      </c>
+      <c r="B93" s="2">
+        <v>15</v>
+      </c>
+      <c r="C93" s="2">
+        <v>18</v>
+      </c>
+      <c r="D93" s="2">
+        <v>19</v>
+      </c>
+      <c r="G93" s="2">
+        <v>15</v>
+      </c>
+      <c r="I93" s="2">
+        <v>20</v>
+      </c>
+      <c r="L93" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A94" s="2">
+        <v>16</v>
+      </c>
+      <c r="B94" s="2">
+        <v>15</v>
+      </c>
+      <c r="C94" s="2">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2">
+        <v>19</v>
+      </c>
+      <c r="G94" s="2">
+        <v>15</v>
+      </c>
+      <c r="I94" s="2">
+        <v>20</v>
+      </c>
+      <c r="L94" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A95" s="2">
+        <v>16</v>
+      </c>
+      <c r="B95" s="2">
+        <v>15</v>
+      </c>
+      <c r="C95" s="2">
+        <v>18</v>
+      </c>
+      <c r="D95" s="2">
+        <v>19</v>
+      </c>
+      <c r="G95" s="2">
+        <v>15</v>
+      </c>
+      <c r="I95" s="2">
+        <v>20</v>
+      </c>
+      <c r="L95" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A96" s="2">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2">
+        <v>15</v>
+      </c>
+      <c r="C96" s="2">
+        <v>18</v>
+      </c>
+      <c r="D96" s="2">
+        <v>19</v>
+      </c>
+      <c r="G96" s="2">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2">
+        <v>19</v>
+      </c>
+      <c r="L96" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A97" s="2">
+        <v>15</v>
+      </c>
+      <c r="B97" s="2">
+        <v>15</v>
+      </c>
+      <c r="C97" s="2">
+        <v>18</v>
+      </c>
+      <c r="D97" s="2">
+        <v>19</v>
+      </c>
+      <c r="G97" s="2">
+        <v>15</v>
+      </c>
+      <c r="I97" s="2">
+        <v>19</v>
+      </c>
+      <c r="L97" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A98" s="2">
+        <v>15</v>
+      </c>
+      <c r="B98" s="2">
+        <v>15</v>
+      </c>
+      <c r="C98" s="2">
+        <v>18</v>
+      </c>
+      <c r="D98" s="2">
+        <v>19</v>
+      </c>
+      <c r="G98" s="2">
+        <v>15</v>
+      </c>
+      <c r="I98" s="2">
+        <v>19</v>
+      </c>
+      <c r="L98" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A99" s="2">
+        <v>15</v>
+      </c>
+      <c r="B99" s="2">
+        <v>15</v>
+      </c>
+      <c r="C99" s="2">
+        <v>18</v>
+      </c>
+      <c r="D99" s="2">
+        <v>19</v>
+      </c>
+      <c r="G99" s="2">
+        <v>15</v>
+      </c>
+      <c r="I99" s="2">
+        <v>19</v>
+      </c>
+      <c r="L99" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A100" s="2">
+        <v>15</v>
+      </c>
+      <c r="B100" s="2">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2">
+        <v>18</v>
+      </c>
+      <c r="D100" s="2">
+        <v>19</v>
+      </c>
+      <c r="G100" s="2">
+        <v>15</v>
+      </c>
+      <c r="I100" s="2">
+        <v>19</v>
+      </c>
+      <c r="L100" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A101" s="2">
+        <v>15</v>
+      </c>
+      <c r="B101" s="2">
+        <v>15</v>
+      </c>
+      <c r="C101" s="2">
+        <v>18</v>
+      </c>
+      <c r="D101" s="2">
+        <v>19</v>
+      </c>
+      <c r="G101" s="2">
+        <v>15</v>
+      </c>
+      <c r="I101" s="2">
+        <v>19</v>
+      </c>
+      <c r="L101" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A102" s="2">
+        <v>15</v>
+      </c>
+      <c r="B102" s="2">
+        <v>15</v>
+      </c>
+      <c r="C102" s="2">
+        <v>18</v>
+      </c>
+      <c r="D102" s="2">
+        <v>19</v>
+      </c>
+      <c r="G102" s="2">
+        <v>15</v>
+      </c>
+      <c r="I102" s="2">
+        <v>19</v>
+      </c>
+      <c r="L102" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A103" s="2">
+        <v>15</v>
+      </c>
+      <c r="B103" s="2">
+        <v>15</v>
+      </c>
+      <c r="C103" s="2">
+        <v>18</v>
+      </c>
+      <c r="D103" s="2">
+        <v>19</v>
+      </c>
+      <c r="G103" s="2">
+        <v>15</v>
+      </c>
+      <c r="I103" s="2">
+        <v>19</v>
+      </c>
+      <c r="L103" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>15</v>
+      </c>
+      <c r="B104" s="2">
+        <v>15</v>
+      </c>
+      <c r="C104" s="2">
+        <v>18</v>
+      </c>
+      <c r="D104" s="2">
+        <v>19</v>
+      </c>
+      <c r="G104" s="2">
+        <v>15</v>
+      </c>
+      <c r="I104" s="2">
+        <v>19</v>
+      </c>
+      <c r="L104" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>15</v>
+      </c>
+      <c r="B105" s="2">
+        <v>15</v>
+      </c>
+      <c r="C105" s="2">
+        <v>18</v>
+      </c>
+      <c r="D105" s="2">
+        <v>19</v>
+      </c>
+      <c r="G105" s="2">
+        <v>15</v>
+      </c>
+      <c r="I105" s="2">
+        <v>19</v>
+      </c>
+      <c r="L105" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>15</v>
+      </c>
+      <c r="B106" s="2">
+        <v>15</v>
+      </c>
+      <c r="C106" s="2">
+        <v>18</v>
+      </c>
+      <c r="D106" s="2">
+        <v>19</v>
+      </c>
+      <c r="G106" s="2">
+        <v>15</v>
+      </c>
+      <c r="I106" s="2">
+        <v>19</v>
+      </c>
+      <c r="L106" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A107" s="2">
+        <v>15</v>
+      </c>
+      <c r="B107" s="2">
+        <v>15</v>
+      </c>
+      <c r="C107" s="2">
+        <v>18</v>
+      </c>
+      <c r="D107" s="2">
+        <v>19</v>
+      </c>
+      <c r="G107" s="2">
+        <v>15</v>
+      </c>
+      <c r="I107" s="2">
+        <v>19</v>
+      </c>
+      <c r="L107" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A108" s="2">
+        <v>15</v>
+      </c>
+      <c r="B108" s="2">
+        <v>15</v>
+      </c>
+      <c r="C108" s="2">
+        <v>18</v>
+      </c>
+      <c r="D108" s="2">
+        <v>19</v>
+      </c>
+      <c r="G108" s="2">
+        <v>15</v>
+      </c>
+      <c r="I108" s="2">
+        <v>19</v>
+      </c>
+      <c r="L108" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A109" s="2">
+        <v>15</v>
+      </c>
+      <c r="B109" s="2">
+        <v>15</v>
+      </c>
+      <c r="C109" s="2">
+        <v>18</v>
+      </c>
+      <c r="D109" s="2">
+        <v>19</v>
+      </c>
+      <c r="G109" s="2">
+        <v>15</v>
+      </c>
+      <c r="I109" s="2">
+        <v>19</v>
+      </c>
+      <c r="L109" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A110" s="2">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2">
+        <v>15</v>
+      </c>
+      <c r="C110" s="2">
+        <v>18</v>
+      </c>
+      <c r="D110" s="2">
+        <v>19</v>
+      </c>
+      <c r="G110" s="2">
+        <v>15</v>
+      </c>
+      <c r="I110" s="2">
+        <v>19</v>
+      </c>
+      <c r="L110" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A111" s="2">
+        <v>15</v>
+      </c>
+      <c r="B111" s="2">
+        <v>15</v>
+      </c>
+      <c r="C111" s="2">
+        <v>18</v>
+      </c>
+      <c r="D111" s="2">
+        <v>19</v>
+      </c>
+      <c r="G111" s="2">
+        <v>15</v>
+      </c>
+      <c r="I111" s="2">
+        <v>19</v>
+      </c>
+      <c r="L111" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A112" s="2">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2">
+        <v>15</v>
+      </c>
+      <c r="C112" s="2">
+        <v>18</v>
+      </c>
+      <c r="D112" s="2">
+        <v>19</v>
+      </c>
+      <c r="G112" s="2">
+        <v>15</v>
+      </c>
+      <c r="I112" s="2">
+        <v>19</v>
+      </c>
+      <c r="L112" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A113" s="2">
+        <v>15</v>
+      </c>
+      <c r="B113" s="2">
+        <v>15</v>
+      </c>
+      <c r="C113" s="2">
+        <v>18</v>
+      </c>
+      <c r="D113" s="2">
+        <v>19</v>
+      </c>
+      <c r="G113" s="2">
+        <v>15</v>
+      </c>
+      <c r="I113" s="2">
+        <v>19</v>
+      </c>
+      <c r="L113" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A114" s="2">
+        <v>15</v>
+      </c>
+      <c r="B114" s="2">
+        <v>15</v>
+      </c>
+      <c r="C114" s="2">
+        <v>18</v>
+      </c>
+      <c r="D114" s="2">
+        <v>19</v>
+      </c>
+      <c r="G114" s="2">
+        <v>15</v>
+      </c>
+      <c r="I114" s="2">
+        <v>19</v>
+      </c>
+      <c r="L114" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A115" s="2">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2">
+        <v>15</v>
+      </c>
+      <c r="C115" s="2">
+        <v>18</v>
+      </c>
+      <c r="D115" s="2">
+        <v>19</v>
+      </c>
+      <c r="G115" s="2">
+        <v>15</v>
+      </c>
+      <c r="I115" s="2">
+        <v>19</v>
+      </c>
+      <c r="L115" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A116" s="2">
+        <v>15</v>
+      </c>
+      <c r="B116" s="2">
+        <v>15</v>
+      </c>
+      <c r="C116" s="2">
+        <v>18</v>
+      </c>
+      <c r="D116" s="2">
+        <v>19</v>
+      </c>
+      <c r="G116" s="2">
+        <v>15</v>
+      </c>
+      <c r="I116" s="2">
+        <v>19</v>
+      </c>
+      <c r="L116" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A117" s="2">
+        <v>15</v>
+      </c>
+      <c r="B117" s="2">
+        <v>15</v>
+      </c>
+      <c r="C117" s="2">
+        <v>18</v>
+      </c>
+      <c r="D117" s="2">
+        <v>19</v>
+      </c>
+      <c r="G117" s="2">
+        <v>15</v>
+      </c>
+      <c r="I117" s="2">
+        <v>19</v>
+      </c>
+      <c r="L117" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A118" s="2">
+        <v>15</v>
+      </c>
+      <c r="B118" s="2">
+        <v>15</v>
+      </c>
+      <c r="C118" s="2">
+        <v>18</v>
+      </c>
+      <c r="D118" s="2">
+        <v>19</v>
+      </c>
+      <c r="G118" s="2">
+        <v>15</v>
+      </c>
+      <c r="I118" s="2">
+        <v>19</v>
+      </c>
+      <c r="L118" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A119" s="2">
+        <v>15</v>
+      </c>
+      <c r="B119" s="2">
+        <v>15</v>
+      </c>
+      <c r="C119" s="2">
+        <v>18</v>
+      </c>
+      <c r="D119" s="2">
+        <v>19</v>
+      </c>
+      <c r="G119" s="2">
+        <v>15</v>
+      </c>
+      <c r="I119" s="2">
+        <v>19</v>
+      </c>
+      <c r="L119" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A120" s="2">
+        <v>15</v>
+      </c>
+      <c r="B120" s="2">
+        <v>15</v>
+      </c>
+      <c r="C120" s="2">
+        <v>18</v>
+      </c>
+      <c r="D120" s="2">
+        <v>19</v>
+      </c>
+      <c r="G120" s="2">
+        <v>15</v>
+      </c>
+      <c r="I120" s="2">
+        <v>19</v>
+      </c>
+      <c r="L120" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A121" s="2">
+        <v>15</v>
+      </c>
+      <c r="B121" s="2">
+        <v>15</v>
+      </c>
+      <c r="C121" s="2">
+        <v>18</v>
+      </c>
+      <c r="D121" s="2">
+        <v>19</v>
+      </c>
+      <c r="G121" s="2">
+        <v>15</v>
+      </c>
+      <c r="I121" s="2">
+        <v>19</v>
+      </c>
+      <c r="L121" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A122" s="2">
+        <v>15</v>
+      </c>
+      <c r="B122" s="2">
+        <v>15</v>
+      </c>
+      <c r="C122" s="2">
+        <v>18</v>
+      </c>
+      <c r="D122" s="2">
+        <v>18</v>
+      </c>
+      <c r="G122" s="2">
+        <v>15</v>
+      </c>
+      <c r="I122" s="2">
+        <v>19</v>
+      </c>
+      <c r="L122" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A123" s="2">
+        <v>15</v>
+      </c>
+      <c r="B123" s="2">
+        <v>15</v>
+      </c>
+      <c r="C123" s="2">
+        <v>18</v>
+      </c>
+      <c r="D123" s="2">
+        <v>18</v>
+      </c>
+      <c r="G123" s="2">
+        <v>15</v>
+      </c>
+      <c r="I123" s="2">
+        <v>19</v>
+      </c>
+      <c r="L123" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A124" s="2">
+        <v>15</v>
+      </c>
+      <c r="B124" s="2">
+        <v>15</v>
+      </c>
+      <c r="C124" s="2">
+        <v>18</v>
+      </c>
+      <c r="D124" s="2">
+        <v>18</v>
+      </c>
+      <c r="G124" s="2">
+        <v>15</v>
+      </c>
+      <c r="I124" s="2">
+        <v>19</v>
+      </c>
+      <c r="L124" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A125" s="2">
+        <v>15</v>
+      </c>
+      <c r="B125" s="2">
+        <v>15</v>
+      </c>
+      <c r="C125" s="2">
+        <v>18</v>
+      </c>
+      <c r="D125" s="2">
+        <v>18</v>
+      </c>
+      <c r="G125" s="2">
+        <v>15</v>
+      </c>
+      <c r="I125" s="2">
+        <v>19</v>
+      </c>
+      <c r="L125" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A126" s="2">
+        <v>15</v>
+      </c>
+      <c r="B126" s="2">
+        <v>15</v>
+      </c>
+      <c r="C126" s="2">
+        <v>18</v>
+      </c>
+      <c r="D126" s="2">
+        <v>18</v>
+      </c>
+      <c r="G126" s="2">
+        <v>15</v>
+      </c>
+      <c r="I126" s="2">
+        <v>19</v>
+      </c>
+      <c r="L126" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A127" s="2">
+        <v>15</v>
+      </c>
+      <c r="B127" s="2">
+        <v>15</v>
+      </c>
+      <c r="C127" s="2">
+        <v>18</v>
+      </c>
+      <c r="D127" s="2">
+        <v>18</v>
+      </c>
+      <c r="G127" s="2">
+        <v>15</v>
+      </c>
+      <c r="I127" s="2">
+        <v>19</v>
+      </c>
+      <c r="L127" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A128" s="2">
+        <v>15</v>
+      </c>
+      <c r="B128" s="2">
+        <v>15</v>
+      </c>
+      <c r="C128" s="2">
+        <v>17</v>
+      </c>
+      <c r="D128" s="2">
+        <v>18</v>
+      </c>
+      <c r="G128" s="2">
+        <v>15</v>
+      </c>
+      <c r="I128" s="2">
+        <v>19</v>
+      </c>
+      <c r="L128" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A129" s="2">
+        <v>15</v>
+      </c>
+      <c r="B129" s="2">
+        <v>15</v>
+      </c>
+      <c r="C129" s="2">
+        <v>17</v>
+      </c>
+      <c r="D129" s="2">
+        <v>18</v>
+      </c>
+      <c r="G129" s="2">
+        <v>15</v>
+      </c>
+      <c r="I129" s="2">
+        <v>19</v>
+      </c>
+      <c r="L129" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A130" s="2">
+        <v>15</v>
+      </c>
+      <c r="B130" s="2">
+        <v>15</v>
+      </c>
+      <c r="C130" s="2">
+        <v>17</v>
+      </c>
+      <c r="D130" s="2">
+        <v>18</v>
+      </c>
+      <c r="G130" s="2">
+        <v>15</v>
+      </c>
+      <c r="I130" s="2">
+        <v>18</v>
+      </c>
+      <c r="L130" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A131" s="2">
+        <v>15</v>
+      </c>
+      <c r="B131" s="2">
+        <v>15</v>
+      </c>
+      <c r="C131" s="2">
+        <v>17</v>
+      </c>
+      <c r="D131" s="2">
+        <v>18</v>
+      </c>
+      <c r="G131" s="2">
+        <v>15</v>
+      </c>
+      <c r="I131" s="2">
+        <v>18</v>
+      </c>
+      <c r="L131" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A132" s="2">
+        <v>15</v>
+      </c>
+      <c r="B132" s="2">
+        <v>15</v>
+      </c>
+      <c r="C132" s="2">
+        <v>17</v>
+      </c>
+      <c r="D132" s="2">
+        <v>18</v>
+      </c>
+      <c r="G132" s="2">
+        <v>15</v>
+      </c>
+      <c r="I132" s="2">
+        <v>18</v>
+      </c>
+      <c r="L132" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A133" s="2">
+        <v>15</v>
+      </c>
+      <c r="B133" s="2">
+        <v>15</v>
+      </c>
+      <c r="C133" s="2">
+        <v>17</v>
+      </c>
+      <c r="D133" s="2">
+        <v>18</v>
+      </c>
+      <c r="G133" s="2">
+        <v>15</v>
+      </c>
+      <c r="I133" s="2">
+        <v>18</v>
+      </c>
+      <c r="L133" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A134" s="2">
+        <v>15</v>
+      </c>
+      <c r="B134" s="2">
+        <v>15</v>
+      </c>
+      <c r="C134" s="2">
+        <v>17</v>
+      </c>
+      <c r="D134" s="2">
+        <v>18</v>
+      </c>
+      <c r="G134" s="2">
+        <v>15</v>
+      </c>
+      <c r="I134" s="2">
+        <v>18</v>
+      </c>
+      <c r="L134" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A135" s="2">
+        <v>15</v>
+      </c>
+      <c r="B135" s="2">
+        <v>15</v>
+      </c>
+      <c r="C135" s="2">
+        <v>17</v>
+      </c>
+      <c r="D135" s="2">
+        <v>18</v>
+      </c>
+      <c r="G135" s="2">
+        <v>15</v>
+      </c>
+      <c r="I135" s="2">
+        <v>18</v>
+      </c>
+      <c r="L135" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A136" s="2">
+        <v>15</v>
+      </c>
+      <c r="B136" s="2">
+        <v>15</v>
+      </c>
+      <c r="C136" s="2">
+        <v>17</v>
+      </c>
+      <c r="D136" s="2">
+        <v>18</v>
+      </c>
+      <c r="G136" s="2">
+        <v>15</v>
+      </c>
+      <c r="I136" s="2">
+        <v>18</v>
+      </c>
+      <c r="L136" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A137" s="2">
+        <v>15</v>
+      </c>
+      <c r="B137" s="2">
+        <v>15</v>
+      </c>
+      <c r="C137" s="2">
+        <v>17</v>
+      </c>
+      <c r="D137" s="2">
+        <v>18</v>
+      </c>
+      <c r="G137" s="2">
+        <v>15</v>
+      </c>
+      <c r="I137" s="2">
+        <v>18</v>
+      </c>
+      <c r="L137" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A138" s="2">
+        <v>15</v>
+      </c>
+      <c r="B138" s="2">
+        <v>15</v>
+      </c>
+      <c r="C138" s="2">
+        <v>17</v>
+      </c>
+      <c r="D138" s="2">
+        <v>18</v>
+      </c>
+      <c r="G138" s="2">
+        <v>15</v>
+      </c>
+      <c r="I138" s="2">
+        <v>18</v>
+      </c>
+      <c r="L138" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A139" s="2">
+        <v>15</v>
+      </c>
+      <c r="B139" s="2">
+        <v>15</v>
+      </c>
+      <c r="C139" s="2">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2">
+        <v>18</v>
+      </c>
+      <c r="G139" s="2">
+        <v>15</v>
+      </c>
+      <c r="I139" s="2">
+        <v>18</v>
+      </c>
+      <c r="L139" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A140" s="2">
+        <v>15</v>
+      </c>
+      <c r="B140" s="2">
+        <v>15</v>
+      </c>
+      <c r="C140" s="2">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2">
+        <v>18</v>
+      </c>
+      <c r="G140" s="2">
+        <v>15</v>
+      </c>
+      <c r="I140" s="2">
+        <v>18</v>
+      </c>
+      <c r="L140" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A141" s="2">
+        <v>15</v>
+      </c>
+      <c r="B141" s="2">
+        <v>15</v>
+      </c>
+      <c r="C141" s="2">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2">
+        <v>18</v>
+      </c>
+      <c r="G141" s="2">
+        <v>15</v>
+      </c>
+      <c r="I141" s="2">
+        <v>18</v>
+      </c>
+      <c r="L141" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A142" s="2">
+        <v>15</v>
+      </c>
+      <c r="B142" s="2">
+        <v>15</v>
+      </c>
+      <c r="C142" s="2">
+        <v>17</v>
+      </c>
+      <c r="D142" s="2">
+        <v>18</v>
+      </c>
+      <c r="G142" s="2">
+        <v>15</v>
+      </c>
+      <c r="I142" s="2">
+        <v>18</v>
+      </c>
+      <c r="L142" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A143" s="2">
+        <v>15</v>
+      </c>
+      <c r="B143" s="2">
+        <v>15</v>
+      </c>
+      <c r="C143" s="2">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2">
+        <v>18</v>
+      </c>
+      <c r="G143" s="2">
+        <v>15</v>
+      </c>
+      <c r="I143" s="2">
+        <v>18</v>
+      </c>
+      <c r="L143" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A144" s="2">
+        <v>15</v>
+      </c>
+      <c r="B144" s="2">
+        <v>15</v>
+      </c>
+      <c r="C144" s="2">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2">
+        <v>18</v>
+      </c>
+      <c r="G144" s="2">
+        <v>15</v>
+      </c>
+      <c r="I144" s="2">
+        <v>18</v>
+      </c>
+      <c r="L144" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A145" s="2">
+        <v>15</v>
+      </c>
+      <c r="B145" s="2">
+        <v>15</v>
+      </c>
+      <c r="C145" s="2">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2">
+        <v>18</v>
+      </c>
+      <c r="G145" s="2">
+        <v>15</v>
+      </c>
+      <c r="I145" s="2">
+        <v>18</v>
+      </c>
+      <c r="L145" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A146" s="2">
+        <v>15</v>
+      </c>
+      <c r="B146" s="2">
+        <v>15</v>
+      </c>
+      <c r="C146" s="2">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2">
+        <v>18</v>
+      </c>
+      <c r="G146" s="2">
+        <v>15</v>
+      </c>
+      <c r="I146" s="2">
+        <v>18</v>
+      </c>
+      <c r="L146" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A147" s="2">
+        <v>15</v>
+      </c>
+      <c r="B147" s="2">
+        <v>15</v>
+      </c>
+      <c r="C147" s="2">
+        <v>17</v>
+      </c>
+      <c r="D147" s="2">
+        <v>18</v>
+      </c>
+      <c r="G147" s="2">
+        <v>15</v>
+      </c>
+      <c r="I147" s="2">
+        <v>18</v>
+      </c>
+      <c r="L147" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A148" s="2">
+        <v>15</v>
+      </c>
+      <c r="B148" s="2">
+        <v>15</v>
+      </c>
+      <c r="C148" s="2">
+        <v>17</v>
+      </c>
+      <c r="D148" s="2">
+        <v>18</v>
+      </c>
+      <c r="G148" s="2">
+        <v>15</v>
+      </c>
+      <c r="I148" s="2">
+        <v>18</v>
+      </c>
+      <c r="L148" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A149" s="2">
+        <v>15</v>
+      </c>
+      <c r="B149" s="2">
+        <v>15</v>
+      </c>
+      <c r="C149" s="2">
+        <v>17</v>
+      </c>
+      <c r="D149" s="2">
+        <v>18</v>
+      </c>
+      <c r="G149" s="2">
+        <v>15</v>
+      </c>
+      <c r="I149" s="2">
+        <v>18</v>
+      </c>
+      <c r="L149" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A150" s="2">
+        <v>15</v>
+      </c>
+      <c r="B150" s="2">
+        <v>15</v>
+      </c>
+      <c r="C150" s="2">
+        <v>17</v>
+      </c>
+      <c r="D150" s="2">
+        <v>18</v>
+      </c>
+      <c r="G150" s="2">
+        <v>15</v>
+      </c>
+      <c r="I150" s="2">
+        <v>18</v>
+      </c>
+      <c r="L150" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A151" s="2">
+        <v>15</v>
+      </c>
+      <c r="B151" s="2">
+        <v>15</v>
+      </c>
+      <c r="C151" s="2">
+        <v>17</v>
+      </c>
+      <c r="D151" s="2">
+        <v>18</v>
+      </c>
+      <c r="G151" s="2">
+        <v>15</v>
+      </c>
+      <c r="I151" s="2">
+        <v>18</v>
+      </c>
+      <c r="L151" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A152" s="2">
+        <v>15</v>
+      </c>
+      <c r="B152" s="2">
+        <v>15</v>
+      </c>
+      <c r="C152" s="2">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2">
+        <v>18</v>
+      </c>
+      <c r="G152" s="2">
+        <v>15</v>
+      </c>
+      <c r="I152" s="2">
+        <v>18</v>
+      </c>
+      <c r="L152" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A153" s="2">
+        <v>15</v>
+      </c>
+      <c r="B153" s="2">
+        <v>15</v>
+      </c>
+      <c r="C153" s="2">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2">
+        <v>18</v>
+      </c>
+      <c r="G153" s="2">
+        <v>15</v>
+      </c>
+      <c r="I153" s="2">
+        <v>18</v>
+      </c>
+      <c r="L153" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A154" s="2">
+        <v>15</v>
+      </c>
+      <c r="B154" s="2">
+        <v>15</v>
+      </c>
+      <c r="C154" s="2">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2">
+        <v>18</v>
+      </c>
+      <c r="G154" s="2">
+        <v>15</v>
+      </c>
+      <c r="I154" s="2">
+        <v>18</v>
+      </c>
+      <c r="L154" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A155" s="2">
+        <v>15</v>
+      </c>
+      <c r="B155" s="2">
+        <v>15</v>
+      </c>
+      <c r="C155" s="2">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2">
+        <v>18</v>
+      </c>
+      <c r="G155" s="2">
+        <v>15</v>
+      </c>
+      <c r="I155" s="2">
+        <v>18</v>
+      </c>
+      <c r="L155" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A156" s="2">
+        <v>15</v>
+      </c>
+      <c r="B156" s="2">
+        <v>15</v>
+      </c>
+      <c r="C156" s="2">
+        <v>17</v>
+      </c>
+      <c r="D156" s="2">
+        <v>18</v>
+      </c>
+      <c r="G156" s="2">
+        <v>15</v>
+      </c>
+      <c r="I156" s="2">
+        <v>18</v>
+      </c>
+      <c r="L156" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A157" s="2">
+        <v>15</v>
+      </c>
+      <c r="B157" s="2">
+        <v>15</v>
+      </c>
+      <c r="C157" s="2">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2">
+        <v>18</v>
+      </c>
+      <c r="G157" s="2">
+        <v>15</v>
+      </c>
+      <c r="I157" s="2">
+        <v>18</v>
+      </c>
+      <c r="L157" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A158" s="2">
+        <v>14</v>
+      </c>
+      <c r="B158" s="2">
+        <v>15</v>
+      </c>
+      <c r="C158" s="2">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2">
+        <v>18</v>
+      </c>
+      <c r="G158" s="2">
+        <v>15</v>
+      </c>
+      <c r="I158" s="2">
+        <v>18</v>
+      </c>
+      <c r="L158" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A159" s="2">
+        <v>14</v>
+      </c>
+      <c r="B159" s="2">
+        <v>15</v>
+      </c>
+      <c r="C159" s="2">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2">
+        <v>18</v>
+      </c>
+      <c r="G159" s="2">
+        <v>15</v>
+      </c>
+      <c r="I159" s="2">
+        <v>18</v>
+      </c>
+      <c r="L159" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A160" s="2">
+        <v>14</v>
+      </c>
+      <c r="B160" s="2">
+        <v>15</v>
+      </c>
+      <c r="C160" s="2">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2">
+        <v>18</v>
+      </c>
+      <c r="G160" s="2">
+        <v>15</v>
+      </c>
+      <c r="I160" s="2">
+        <v>18</v>
+      </c>
+      <c r="L160" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A161" s="2">
+        <v>14</v>
+      </c>
+      <c r="B161" s="2">
+        <v>15</v>
+      </c>
+      <c r="C161" s="2">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2">
+        <v>18</v>
+      </c>
+      <c r="G161" s="2">
+        <v>15</v>
+      </c>
+      <c r="I161" s="2">
+        <v>18</v>
+      </c>
+      <c r="L161" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A162" s="2">
+        <v>14</v>
+      </c>
+      <c r="B162" s="2">
+        <v>15</v>
+      </c>
+      <c r="C162" s="2">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2">
+        <v>18</v>
+      </c>
+      <c r="G162" s="2">
+        <v>15</v>
+      </c>
+      <c r="I162" s="2">
+        <v>18</v>
+      </c>
+      <c r="L162" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A163" s="2">
+        <v>14</v>
+      </c>
+      <c r="B163" s="2">
+        <v>15</v>
+      </c>
+      <c r="C163" s="2">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2">
+        <v>18</v>
+      </c>
+      <c r="G163" s="2">
+        <v>15</v>
+      </c>
+      <c r="I163" s="2">
+        <v>18</v>
+      </c>
+      <c r="L163" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A164" s="2">
+        <v>14</v>
+      </c>
+      <c r="B164" s="2">
+        <v>15</v>
+      </c>
+      <c r="C164" s="2">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2">
+        <v>18</v>
+      </c>
+      <c r="G164" s="2">
+        <v>15</v>
+      </c>
+      <c r="I164" s="2">
+        <v>18</v>
+      </c>
+      <c r="L164" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A165" s="2">
+        <v>14</v>
+      </c>
+      <c r="B165" s="2">
+        <v>15</v>
+      </c>
+      <c r="C165" s="2">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2">
+        <v>18</v>
+      </c>
+      <c r="G165" s="2">
+        <v>15</v>
+      </c>
+      <c r="I165" s="2">
+        <v>18</v>
+      </c>
+      <c r="L165" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A166" s="2">
+        <v>14</v>
+      </c>
+      <c r="B166" s="2">
+        <v>15</v>
+      </c>
+      <c r="C166" s="2">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2">
+        <v>18</v>
+      </c>
+      <c r="G166" s="2">
+        <v>15</v>
+      </c>
+      <c r="I166" s="2">
+        <v>18</v>
+      </c>
+      <c r="L166" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A167" s="2">
+        <v>14</v>
+      </c>
+      <c r="B167" s="2">
+        <v>15</v>
+      </c>
+      <c r="C167" s="2">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2">
+        <v>18</v>
+      </c>
+      <c r="G167" s="2">
+        <v>15</v>
+      </c>
+      <c r="I167" s="2">
+        <v>18</v>
+      </c>
+      <c r="L167" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A168" s="2">
+        <v>14</v>
+      </c>
+      <c r="B168" s="2">
+        <v>15</v>
+      </c>
+      <c r="C168" s="2">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2">
+        <v>17</v>
+      </c>
+      <c r="G168" s="2">
+        <v>15</v>
+      </c>
+      <c r="I168" s="2">
+        <v>18</v>
+      </c>
+      <c r="L168" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A169" s="2">
+        <v>14</v>
+      </c>
+      <c r="B169" s="2">
+        <v>15</v>
+      </c>
+      <c r="C169" s="2">
+        <v>17</v>
+      </c>
+      <c r="D169" s="2">
+        <v>17</v>
+      </c>
+      <c r="G169" s="2">
+        <v>15</v>
+      </c>
+      <c r="I169" s="2">
+        <v>18</v>
+      </c>
+      <c r="L169" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A170" s="2">
+        <v>14</v>
+      </c>
+      <c r="B170" s="2">
+        <v>15</v>
+      </c>
+      <c r="C170" s="2">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2">
+        <v>17</v>
+      </c>
+      <c r="G170" s="2">
+        <v>15</v>
+      </c>
+      <c r="I170" s="2">
+        <v>18</v>
+      </c>
+      <c r="L170" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A171" s="2">
+        <v>14</v>
+      </c>
+      <c r="B171" s="2">
+        <v>15</v>
+      </c>
+      <c r="C171" s="2">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2">
+        <v>17</v>
+      </c>
+      <c r="G171" s="2">
+        <v>15</v>
+      </c>
+      <c r="I171" s="2">
+        <v>18</v>
+      </c>
+      <c r="L171" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A172" s="2">
+        <v>14</v>
+      </c>
+      <c r="B172" s="2">
+        <v>14</v>
+      </c>
+      <c r="C172" s="2">
+        <v>17</v>
+      </c>
+      <c r="D172" s="2">
+        <v>17</v>
+      </c>
+      <c r="G172" s="2">
+        <v>14</v>
+      </c>
+      <c r="I172" s="2">
+        <v>17</v>
+      </c>
+      <c r="L172" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A173" s="2">
+        <v>14</v>
+      </c>
+      <c r="B173" s="2">
+        <v>14</v>
+      </c>
+      <c r="C173" s="2">
+        <v>17</v>
+      </c>
+      <c r="D173" s="2">
+        <v>17</v>
+      </c>
+      <c r="G173" s="2">
+        <v>14</v>
+      </c>
+      <c r="I173" s="2">
+        <v>17</v>
+      </c>
+      <c r="L173" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A174" s="2">
+        <v>14</v>
+      </c>
+      <c r="B174" s="2">
+        <v>14</v>
+      </c>
+      <c r="C174" s="2">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2">
+        <v>17</v>
+      </c>
+      <c r="G174" s="2">
+        <v>14</v>
+      </c>
+      <c r="I174" s="2">
+        <v>17</v>
+      </c>
+      <c r="L174" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A175" s="2">
+        <v>14</v>
+      </c>
+      <c r="B175" s="2">
+        <v>14</v>
+      </c>
+      <c r="C175" s="2">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2">
+        <v>17</v>
+      </c>
+      <c r="G175" s="2">
+        <v>14</v>
+      </c>
+      <c r="I175" s="2">
+        <v>17</v>
+      </c>
+      <c r="L175" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A176" s="2">
+        <v>14</v>
+      </c>
+      <c r="B176" s="2">
+        <v>14</v>
+      </c>
+      <c r="C176" s="2">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2">
+        <v>17</v>
+      </c>
+      <c r="G176" s="2">
+        <v>14</v>
+      </c>
+      <c r="I176" s="2">
+        <v>17</v>
+      </c>
+      <c r="L176" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A177" s="2">
+        <v>14</v>
+      </c>
+      <c r="B177" s="2">
+        <v>14</v>
+      </c>
+      <c r="C177" s="2">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2">
+        <v>17</v>
+      </c>
+      <c r="G177" s="2">
+        <v>14</v>
+      </c>
+      <c r="I177" s="2">
+        <v>17</v>
+      </c>
+      <c r="L177" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A178" s="2">
+        <v>14</v>
+      </c>
+      <c r="B178" s="2">
+        <v>14</v>
+      </c>
+      <c r="C178" s="2">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2">
+        <v>17</v>
+      </c>
+      <c r="G178" s="2">
+        <v>14</v>
+      </c>
+      <c r="I178" s="2">
+        <v>17</v>
+      </c>
+      <c r="L178" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A179" s="2">
+        <v>14</v>
+      </c>
+      <c r="B179" s="2">
+        <v>14</v>
+      </c>
+      <c r="C179" s="2">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2">
+        <v>17</v>
+      </c>
+      <c r="G179" s="2">
+        <v>14</v>
+      </c>
+      <c r="I179" s="2">
+        <v>17</v>
+      </c>
+      <c r="L179" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A180" s="2">
+        <v>14</v>
+      </c>
+      <c r="B180" s="2">
+        <v>14</v>
+      </c>
+      <c r="C180" s="2">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2">
+        <v>17</v>
+      </c>
+      <c r="G180" s="2">
+        <v>14</v>
+      </c>
+      <c r="I180" s="2">
+        <v>17</v>
+      </c>
+      <c r="L180" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A181" s="2">
+        <v>14</v>
+      </c>
+      <c r="B181" s="2">
+        <v>14</v>
+      </c>
+      <c r="C181" s="2">
+        <v>17</v>
+      </c>
+      <c r="D181" s="2">
+        <v>17</v>
+      </c>
+      <c r="G181" s="2">
+        <v>14</v>
+      </c>
+      <c r="I181" s="2">
+        <v>17</v>
+      </c>
+      <c r="L181" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A182" s="2">
+        <v>14</v>
+      </c>
+      <c r="B182" s="2">
+        <v>14</v>
+      </c>
+      <c r="C182" s="2">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2">
+        <v>17</v>
+      </c>
+      <c r="G182" s="2">
+        <v>14</v>
+      </c>
+      <c r="I182" s="2">
+        <v>17</v>
+      </c>
+      <c r="L182" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A183" s="2">
+        <v>14</v>
+      </c>
+      <c r="B183" s="2">
+        <v>14</v>
+      </c>
+      <c r="C183" s="2">
+        <v>17</v>
+      </c>
+      <c r="D183" s="2">
+        <v>17</v>
+      </c>
+      <c r="G183" s="2">
+        <v>14</v>
+      </c>
+      <c r="I183" s="2">
+        <v>17</v>
+      </c>
+      <c r="L183" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A184" s="2">
+        <v>14</v>
+      </c>
+      <c r="B184" s="2">
+        <v>14</v>
+      </c>
+      <c r="C184" s="2">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2">
+        <v>17</v>
+      </c>
+      <c r="G184" s="2">
+        <v>14</v>
+      </c>
+      <c r="I184" s="2">
+        <v>17</v>
+      </c>
+      <c r="L184" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A185" s="2">
+        <v>14</v>
+      </c>
+      <c r="B185" s="2">
+        <v>14</v>
+      </c>
+      <c r="C185" s="2">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2">
+        <v>17</v>
+      </c>
+      <c r="G185" s="2">
+        <v>14</v>
+      </c>
+      <c r="I185" s="2">
+        <v>17</v>
+      </c>
+      <c r="L185" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A186" s="2">
+        <v>14</v>
+      </c>
+      <c r="B186" s="2">
+        <v>14</v>
+      </c>
+      <c r="C186" s="2">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2">
+        <v>17</v>
+      </c>
+      <c r="G186" s="2">
+        <v>14</v>
+      </c>
+      <c r="I186" s="2">
+        <v>17</v>
+      </c>
+      <c r="L186" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A187" s="2">
+        <v>14</v>
+      </c>
+      <c r="B187" s="2">
+        <v>14</v>
+      </c>
+      <c r="C187" s="2">
+        <v>17</v>
+      </c>
+      <c r="D187" s="2">
+        <v>17</v>
+      </c>
+      <c r="G187" s="2">
+        <v>14</v>
+      </c>
+      <c r="I187" s="2">
+        <v>17</v>
+      </c>
+      <c r="L187" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A188" s="2">
+        <v>14</v>
+      </c>
+      <c r="B188" s="2">
+        <v>14</v>
+      </c>
+      <c r="C188" s="2">
+        <v>17</v>
+      </c>
+      <c r="D188" s="2">
+        <v>17</v>
+      </c>
+      <c r="G188" s="2">
+        <v>14</v>
+      </c>
+      <c r="I188" s="2">
+        <v>17</v>
+      </c>
+      <c r="L188" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A189" s="2">
+        <v>14</v>
+      </c>
+      <c r="B189" s="2">
+        <v>14</v>
+      </c>
+      <c r="C189" s="2">
+        <v>17</v>
+      </c>
+      <c r="D189" s="2">
+        <v>17</v>
+      </c>
+      <c r="G189" s="2">
+        <v>14</v>
+      </c>
+      <c r="I189" s="2">
+        <v>17</v>
+      </c>
+      <c r="L189" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A190" s="2">
+        <v>14</v>
+      </c>
+      <c r="B190" s="2">
+        <v>14</v>
+      </c>
+      <c r="C190" s="2">
+        <v>17</v>
+      </c>
+      <c r="D190" s="2">
+        <v>17</v>
+      </c>
+      <c r="G190" s="2">
+        <v>14</v>
+      </c>
+      <c r="I190" s="2">
+        <v>17</v>
+      </c>
+      <c r="L190" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A191" s="2">
+        <v>14</v>
+      </c>
+      <c r="B191" s="2">
+        <v>14</v>
+      </c>
+      <c r="C191" s="2">
+        <v>17</v>
+      </c>
+      <c r="D191" s="2">
+        <v>17</v>
+      </c>
+      <c r="G191" s="2">
+        <v>14</v>
+      </c>
+      <c r="I191" s="2">
+        <v>17</v>
+      </c>
+      <c r="L191" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A192" s="2">
+        <v>14</v>
+      </c>
+      <c r="B192" s="2">
+        <v>14</v>
+      </c>
+      <c r="C192" s="2">
+        <v>17</v>
+      </c>
+      <c r="D192" s="2">
+        <v>17</v>
+      </c>
+      <c r="G192" s="2">
+        <v>14</v>
+      </c>
+      <c r="I192" s="2">
+        <v>17</v>
+      </c>
+      <c r="L192" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A193" s="2">
+        <v>14</v>
+      </c>
+      <c r="B193" s="2">
+        <v>14</v>
+      </c>
+      <c r="C193" s="2">
+        <v>17</v>
+      </c>
+      <c r="D193" s="2">
+        <v>17</v>
+      </c>
+      <c r="G193" s="2">
+        <v>14</v>
+      </c>
+      <c r="I193" s="2">
+        <v>17</v>
+      </c>
+      <c r="L193" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A194" s="2">
+        <v>14</v>
+      </c>
+      <c r="B194" s="2">
+        <v>14</v>
+      </c>
+      <c r="C194" s="2">
+        <v>16</v>
+      </c>
+      <c r="D194" s="2">
+        <v>17</v>
+      </c>
+      <c r="G194" s="2">
+        <v>14</v>
+      </c>
+      <c r="I194" s="2">
+        <v>17</v>
+      </c>
+      <c r="L194" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A195" s="2">
+        <v>14</v>
+      </c>
+      <c r="B195" s="2">
+        <v>14</v>
+      </c>
+      <c r="C195" s="2">
+        <v>16</v>
+      </c>
+      <c r="D195" s="2">
+        <v>17</v>
+      </c>
+      <c r="G195" s="2">
+        <v>14</v>
+      </c>
+      <c r="I195" s="2">
+        <v>17</v>
+      </c>
+      <c r="L195" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A196" s="2">
+        <v>14</v>
+      </c>
+      <c r="B196" s="2">
+        <v>14</v>
+      </c>
+      <c r="C196" s="2">
+        <v>16</v>
+      </c>
+      <c r="D196" s="2">
+        <v>17</v>
+      </c>
+      <c r="G196" s="2">
+        <v>14</v>
+      </c>
+      <c r="I196" s="2">
+        <v>16</v>
+      </c>
+      <c r="L196" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A197" s="2">
+        <v>14</v>
+      </c>
+      <c r="B197" s="2">
+        <v>14</v>
+      </c>
+      <c r="C197" s="2">
+        <v>16</v>
+      </c>
+      <c r="D197" s="2">
+        <v>17</v>
+      </c>
+      <c r="G197" s="2">
+        <v>14</v>
+      </c>
+      <c r="I197" s="2">
+        <v>16</v>
+      </c>
+      <c r="L197" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A198" s="2">
+        <v>14</v>
+      </c>
+      <c r="B198" s="2">
+        <v>14</v>
+      </c>
+      <c r="C198" s="2">
+        <v>16</v>
+      </c>
+      <c r="D198" s="2">
+        <v>17</v>
+      </c>
+      <c r="G198" s="2">
+        <v>14</v>
+      </c>
+      <c r="I198" s="2">
+        <v>16</v>
+      </c>
+      <c r="L198" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A199" s="2">
+        <v>14</v>
+      </c>
+      <c r="B199" s="2">
+        <v>14</v>
+      </c>
+      <c r="C199" s="2">
+        <v>16</v>
+      </c>
+      <c r="D199" s="2">
+        <v>17</v>
+      </c>
+      <c r="G199" s="2">
+        <v>14</v>
+      </c>
+      <c r="I199" s="2">
+        <v>16</v>
+      </c>
+      <c r="L199" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A200" s="2">
+        <v>14</v>
+      </c>
+      <c r="B200" s="2">
+        <v>14</v>
+      </c>
+      <c r="C200" s="2">
+        <v>16</v>
+      </c>
+      <c r="D200" s="2">
+        <v>17</v>
+      </c>
+      <c r="G200" s="2">
+        <v>14</v>
+      </c>
+      <c r="I200" s="2">
+        <v>16</v>
+      </c>
+      <c r="L200" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A201" s="2">
+        <v>14</v>
+      </c>
+      <c r="B201" s="2">
+        <v>14</v>
+      </c>
+      <c r="C201" s="2">
+        <v>16</v>
+      </c>
+      <c r="D201" s="2">
+        <v>17</v>
+      </c>
+      <c r="G201" s="2">
+        <v>14</v>
+      </c>
+      <c r="I201" s="2">
+        <v>16</v>
+      </c>
+      <c r="L201" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A202" s="2">
+        <v>14</v>
+      </c>
+      <c r="B202" s="2">
+        <v>14</v>
+      </c>
+      <c r="C202" s="2">
+        <v>16</v>
+      </c>
+      <c r="D202" s="2">
+        <v>17</v>
+      </c>
+      <c r="G202" s="2">
+        <v>14</v>
+      </c>
+      <c r="I202" s="2">
+        <v>16</v>
+      </c>
+      <c r="L202" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A203" s="2">
+        <v>14</v>
+      </c>
+      <c r="B203" s="2">
+        <v>14</v>
+      </c>
+      <c r="C203" s="2">
+        <v>16</v>
+      </c>
+      <c r="D203" s="2">
+        <v>17</v>
+      </c>
+      <c r="G203" s="2">
+        <v>14</v>
+      </c>
+      <c r="I203" s="2">
+        <v>16</v>
+      </c>
+      <c r="L203" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A204" s="2">
+        <v>14</v>
+      </c>
+      <c r="B204" s="2">
+        <v>14</v>
+      </c>
+      <c r="C204" s="2">
+        <v>16</v>
+      </c>
+      <c r="D204" s="2">
+        <v>17</v>
+      </c>
+      <c r="G204" s="2">
+        <v>14</v>
+      </c>
+      <c r="I204" s="2">
+        <v>16</v>
+      </c>
+      <c r="L204" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A205" s="2">
+        <v>14</v>
+      </c>
+      <c r="B205" s="2">
+        <v>14</v>
+      </c>
+      <c r="C205" s="2">
+        <v>16</v>
+      </c>
+      <c r="D205" s="2">
+        <v>17</v>
+      </c>
+      <c r="G205" s="2">
+        <v>14</v>
+      </c>
+      <c r="I205" s="2">
+        <v>16</v>
+      </c>
+      <c r="L205" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A206" s="2">
+        <v>14</v>
+      </c>
+      <c r="B206" s="2">
+        <v>14</v>
+      </c>
+      <c r="C206" s="2">
+        <v>16</v>
+      </c>
+      <c r="D206" s="2">
+        <v>17</v>
+      </c>
+      <c r="G206" s="2">
+        <v>14</v>
+      </c>
+      <c r="I206" s="2">
+        <v>16</v>
+      </c>
+      <c r="L206" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A207" s="2">
+        <v>14</v>
+      </c>
+      <c r="B207" s="2">
+        <v>14</v>
+      </c>
+      <c r="C207" s="2">
+        <v>16</v>
+      </c>
+      <c r="D207" s="2">
+        <v>17</v>
+      </c>
+      <c r="G207" s="2">
+        <v>14</v>
+      </c>
+      <c r="I207" s="2">
+        <v>16</v>
+      </c>
+      <c r="L207" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A208" s="2">
+        <v>14</v>
+      </c>
+      <c r="B208" s="2">
+        <v>14</v>
+      </c>
+      <c r="C208" s="2">
+        <v>16</v>
+      </c>
+      <c r="D208" s="2">
+        <v>17</v>
+      </c>
+      <c r="G208" s="2">
+        <v>14</v>
+      </c>
+      <c r="I208" s="2">
+        <v>16</v>
+      </c>
+      <c r="L208" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A209" s="2">
+        <v>14</v>
+      </c>
+      <c r="B209" s="2">
+        <v>14</v>
+      </c>
+      <c r="C209" s="2">
+        <v>16</v>
+      </c>
+      <c r="D209" s="2">
+        <v>17</v>
+      </c>
+      <c r="G209" s="2">
+        <v>14</v>
+      </c>
+      <c r="I209" s="2">
+        <v>16</v>
+      </c>
+      <c r="L209" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A210" s="2">
+        <v>14</v>
+      </c>
+      <c r="B210" s="2">
+        <v>14</v>
+      </c>
+      <c r="C210" s="2">
+        <v>16</v>
+      </c>
+      <c r="D210" s="2">
+        <v>17</v>
+      </c>
+      <c r="G210" s="2">
+        <v>14</v>
+      </c>
+      <c r="I210" s="2">
+        <v>16</v>
+      </c>
+      <c r="L210" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A211" s="2">
+        <v>14</v>
+      </c>
+      <c r="B211" s="2">
+        <v>14</v>
+      </c>
+      <c r="C211" s="2">
+        <v>16</v>
+      </c>
+      <c r="D211" s="2">
+        <v>17</v>
+      </c>
+      <c r="G211" s="2">
+        <v>14</v>
+      </c>
+      <c r="I211" s="2">
+        <v>16</v>
+      </c>
+      <c r="L211" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A212" s="2">
+        <v>14</v>
+      </c>
+      <c r="B212" s="2">
+        <v>14</v>
+      </c>
+      <c r="C212" s="2">
+        <v>16</v>
+      </c>
+      <c r="D212" s="2">
+        <v>17</v>
+      </c>
+      <c r="G212" s="2">
+        <v>14</v>
+      </c>
+      <c r="I212" s="2">
+        <v>16</v>
+      </c>
+      <c r="L212" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A213" s="2">
+        <v>14</v>
+      </c>
+      <c r="B213" s="2">
+        <v>14</v>
+      </c>
+      <c r="C213" s="2">
+        <v>16</v>
+      </c>
+      <c r="D213" s="2">
+        <v>17</v>
+      </c>
+      <c r="G213" s="2">
+        <v>14</v>
+      </c>
+      <c r="I213" s="2">
+        <v>16</v>
+      </c>
+      <c r="L213" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A214" s="2">
+        <v>14</v>
+      </c>
+      <c r="B214" s="2">
+        <v>14</v>
+      </c>
+      <c r="C214" s="2">
+        <v>16</v>
+      </c>
+      <c r="D214" s="2">
+        <v>17</v>
+      </c>
+      <c r="G214" s="2">
+        <v>14</v>
+      </c>
+      <c r="I214" s="2">
+        <v>16</v>
+      </c>
+      <c r="L214" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A215" s="2">
+        <v>14</v>
+      </c>
+      <c r="B215" s="2">
+        <v>14</v>
+      </c>
+      <c r="C215" s="2">
+        <v>16</v>
+      </c>
+      <c r="D215" s="2">
+        <v>17</v>
+      </c>
+      <c r="G215" s="2">
+        <v>14</v>
+      </c>
+      <c r="I215" s="2">
+        <v>16</v>
+      </c>
+      <c r="L215" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A216" s="2">
+        <v>14</v>
+      </c>
+      <c r="B216" s="2">
+        <v>14</v>
+      </c>
+      <c r="C216" s="2">
+        <v>16</v>
+      </c>
+      <c r="D216" s="2">
+        <v>17</v>
+      </c>
+      <c r="G216" s="2">
+        <v>14</v>
+      </c>
+      <c r="I216" s="2">
+        <v>16</v>
+      </c>
+      <c r="L216" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A217" s="2">
+        <v>14</v>
+      </c>
+      <c r="B217" s="2">
+        <v>14</v>
+      </c>
+      <c r="C217" s="2">
+        <v>16</v>
+      </c>
+      <c r="D217" s="2">
+        <v>17</v>
+      </c>
+      <c r="G217" s="2">
+        <v>14</v>
+      </c>
+      <c r="I217" s="2">
+        <v>16</v>
+      </c>
+      <c r="L217" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A218" s="2">
+        <v>14</v>
+      </c>
+      <c r="B218" s="2">
+        <v>14</v>
+      </c>
+      <c r="C218" s="2">
+        <v>16</v>
+      </c>
+      <c r="D218" s="2">
+        <v>17</v>
+      </c>
+      <c r="G218" s="2">
+        <v>14</v>
+      </c>
+      <c r="I218" s="2">
+        <v>15</v>
+      </c>
+      <c r="L218" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A219" s="2">
+        <v>14</v>
+      </c>
+      <c r="B219" s="2">
+        <v>14</v>
+      </c>
+      <c r="C219" s="2">
+        <v>16</v>
+      </c>
+      <c r="D219" s="2">
+        <v>17</v>
+      </c>
+      <c r="G219" s="2">
+        <v>14</v>
+      </c>
+      <c r="I219" s="2">
+        <v>15</v>
+      </c>
+      <c r="L219" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A220" s="2">
+        <v>14</v>
+      </c>
+      <c r="B220" s="2">
+        <v>14</v>
+      </c>
+      <c r="C220" s="2">
+        <v>16</v>
+      </c>
+      <c r="D220" s="2">
+        <v>17</v>
+      </c>
+      <c r="G220" s="2">
+        <v>14</v>
+      </c>
+      <c r="I220" s="2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="L220" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A221" s="2">
+        <v>14</v>
+      </c>
+      <c r="B221" s="2">
+        <v>14</v>
+      </c>
+      <c r="C221" s="2">
+        <v>16</v>
+      </c>
+      <c r="D221" s="2">
+        <v>17</v>
+      </c>
+      <c r="G221" s="2">
+        <v>14</v>
+      </c>
+      <c r="I221" s="2">
+        <v>10</v>
+      </c>
+      <c r="L221" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A222" s="2">
+        <v>14</v>
+      </c>
+      <c r="B222" s="2">
+        <v>14</v>
+      </c>
+      <c r="C222" s="2">
+        <v>16</v>
+      </c>
+      <c r="D222" s="2">
+        <v>17</v>
+      </c>
+      <c r="G222" s="2">
+        <v>14</v>
+      </c>
+      <c r="I222" s="2">
+        <v>10</v>
+      </c>
+      <c r="L222" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A223" s="2">
+        <v>14</v>
+      </c>
+      <c r="B223" s="2">
+        <v>14</v>
+      </c>
+      <c r="C223" s="2">
+        <v>16</v>
+      </c>
+      <c r="D223" s="2">
+        <v>17</v>
+      </c>
+      <c r="G223" s="2">
+        <v>14</v>
+      </c>
+      <c r="I223" s="2">
+        <v>10</v>
+      </c>
+      <c r="L223" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A224" s="2">
+        <v>14</v>
+      </c>
+      <c r="B224" s="2">
+        <v>14</v>
+      </c>
+      <c r="C224" s="2">
+        <v>16</v>
+      </c>
+      <c r="D224" s="2">
+        <v>17</v>
+      </c>
+      <c r="G224" s="2">
+        <v>14</v>
+      </c>
+      <c r="I224" s="2">
+        <v>10</v>
+      </c>
+      <c r="L224" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A225" s="2">
+        <v>14</v>
+      </c>
+      <c r="B225" s="2">
+        <v>14</v>
+      </c>
+      <c r="C225" s="2">
+        <v>16</v>
+      </c>
+      <c r="D225" s="2">
+        <v>17</v>
+      </c>
+      <c r="G225" s="2">
+        <v>14</v>
+      </c>
+      <c r="I225" s="2">
+        <v>10</v>
+      </c>
+      <c r="L225" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A226" s="2">
+        <v>14</v>
+      </c>
+      <c r="B226" s="2">
+        <v>14</v>
+      </c>
+      <c r="C226" s="2">
+        <v>16</v>
+      </c>
+      <c r="D226" s="2">
+        <v>17</v>
+      </c>
+      <c r="G226" s="2">
+        <v>14</v>
+      </c>
+      <c r="I226" s="2">
+        <v>10</v>
+      </c>
+      <c r="L226" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A227" s="2">
+        <v>14</v>
+      </c>
+      <c r="B227" s="2">
+        <v>14</v>
+      </c>
+      <c r="C227" s="2">
+        <v>16</v>
+      </c>
+      <c r="D227" s="2">
+        <v>17</v>
+      </c>
+      <c r="G227" s="2">
+        <v>14</v>
+      </c>
+      <c r="I227" s="2">
+        <v>10</v>
+      </c>
+      <c r="L227" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A228" s="2">
+        <v>14</v>
+      </c>
+      <c r="B228" s="2">
+        <v>14</v>
+      </c>
+      <c r="C228" s="2">
+        <v>16</v>
+      </c>
+      <c r="D228" s="2">
+        <v>17</v>
+      </c>
+      <c r="G228" s="2">
+        <v>14</v>
+      </c>
+      <c r="I228"/>
+      <c r="L228" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A229" s="2">
+        <v>14</v>
+      </c>
+      <c r="B229" s="2">
+        <v>14</v>
+      </c>
+      <c r="C229" s="2">
+        <v>16</v>
+      </c>
+      <c r="D229" s="2">
+        <v>17</v>
+      </c>
+      <c r="G229" s="2">
+        <v>14</v>
+      </c>
+      <c r="I229"/>
+      <c r="L229" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A230" s="2">
+        <v>14</v>
+      </c>
+      <c r="B230" s="2">
+        <v>14</v>
+      </c>
+      <c r="C230" s="2">
+        <v>16</v>
+      </c>
+      <c r="D230" s="2">
+        <v>17</v>
+      </c>
+      <c r="G230" s="2">
+        <v>14</v>
+      </c>
+      <c r="I230"/>
+      <c r="L230" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A231" s="2">
+        <v>14</v>
+      </c>
+      <c r="B231" s="2">
+        <v>14</v>
+      </c>
+      <c r="C231" s="2">
+        <v>16</v>
+      </c>
+      <c r="D231" s="2">
+        <v>17</v>
+      </c>
+      <c r="G231" s="2">
+        <v>14</v>
+      </c>
+      <c r="I231"/>
+      <c r="L231" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A232" s="2">
+        <v>14</v>
+      </c>
+      <c r="B232" s="2">
+        <v>14</v>
+      </c>
+      <c r="C232" s="2">
+        <v>16</v>
+      </c>
+      <c r="D232" s="2">
+        <v>16</v>
+      </c>
+      <c r="G232" s="2">
+        <v>14</v>
+      </c>
+      <c r="I232"/>
+      <c r="L232" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A233" s="2">
+        <v>14</v>
+      </c>
+      <c r="B233" s="2">
+        <v>14</v>
+      </c>
+      <c r="C233" s="2">
+        <v>16</v>
+      </c>
+      <c r="D233" s="2">
+        <v>16</v>
+      </c>
+      <c r="G233" s="2">
+        <v>14</v>
+      </c>
+      <c r="I233"/>
+      <c r="L233" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A234" s="2">
+        <v>14</v>
+      </c>
+      <c r="B234" s="2">
+        <v>13</v>
+      </c>
+      <c r="C234" s="2">
+        <v>16</v>
+      </c>
+      <c r="D234" s="2">
+        <v>16</v>
+      </c>
+      <c r="G234" s="2">
+        <v>13</v>
+      </c>
+      <c r="L234" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A235" s="2">
+        <v>14</v>
+      </c>
+      <c r="B235" s="2">
+        <v>13</v>
+      </c>
+      <c r="C235" s="2">
+        <v>16</v>
+      </c>
+      <c r="D235" s="2">
+        <v>16</v>
+      </c>
+      <c r="G235" s="2">
+        <v>13</v>
+      </c>
+      <c r="L235" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A236" s="2">
+        <v>14</v>
+      </c>
+      <c r="B236" s="2">
+        <v>13</v>
+      </c>
+      <c r="C236" s="2">
+        <v>16</v>
+      </c>
+      <c r="D236" s="2">
+        <v>16</v>
+      </c>
+      <c r="G236" s="2">
+        <v>13</v>
+      </c>
+      <c r="L236" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A237" s="2">
+        <v>14</v>
+      </c>
+      <c r="B237" s="2">
+        <v>13</v>
+      </c>
+      <c r="C237" s="2">
+        <v>16</v>
+      </c>
+      <c r="D237" s="2">
+        <v>16</v>
+      </c>
+      <c r="G237" s="2">
+        <v>13</v>
+      </c>
+      <c r="L237" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A238" s="2">
+        <v>14</v>
+      </c>
+      <c r="B238" s="2">
+        <v>13</v>
+      </c>
+      <c r="C238" s="2">
+        <v>16</v>
+      </c>
+      <c r="D238" s="2">
+        <v>16</v>
+      </c>
+      <c r="G238" s="2">
+        <v>13</v>
+      </c>
+      <c r="L238" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A239" s="2">
+        <v>14</v>
+      </c>
+      <c r="B239" s="2">
+        <v>13</v>
+      </c>
+      <c r="C239" s="2">
+        <v>16</v>
+      </c>
+      <c r="D239" s="2">
+        <v>16</v>
+      </c>
+      <c r="G239" s="2">
+        <v>13</v>
+      </c>
+      <c r="L239" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A240" s="2">
+        <v>14</v>
+      </c>
+      <c r="B240" s="2">
+        <v>13</v>
+      </c>
+      <c r="C240" s="2">
+        <v>16</v>
+      </c>
+      <c r="D240" s="2">
+        <v>16</v>
+      </c>
+      <c r="G240" s="2">
+        <v>13</v>
+      </c>
+      <c r="L240" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A241" s="2">
+        <v>14</v>
+      </c>
+      <c r="B241" s="2">
+        <v>13</v>
+      </c>
+      <c r="C241" s="2">
+        <v>16</v>
+      </c>
+      <c r="D241" s="2">
+        <v>16</v>
+      </c>
+      <c r="G241" s="2">
+        <v>13</v>
+      </c>
+      <c r="L241" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A242" s="2">
+        <v>14</v>
+      </c>
+      <c r="B242" s="2">
+        <v>13</v>
+      </c>
+      <c r="C242" s="2">
+        <v>16</v>
+      </c>
+      <c r="D242" s="2">
+        <v>16</v>
+      </c>
+      <c r="G242" s="2">
+        <v>13</v>
+      </c>
+      <c r="L242" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A243" s="2">
+        <v>14</v>
+      </c>
+      <c r="B243" s="2">
+        <v>13</v>
+      </c>
+      <c r="C243" s="2">
+        <v>16</v>
+      </c>
+      <c r="D243" s="2">
+        <v>16</v>
+      </c>
+      <c r="G243" s="2">
+        <v>13</v>
+      </c>
+      <c r="L243" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A244" s="2">
+        <v>14</v>
+      </c>
+      <c r="B244" s="2">
+        <v>13</v>
+      </c>
+      <c r="C244" s="2">
+        <v>16</v>
+      </c>
+      <c r="D244" s="2">
+        <v>16</v>
+      </c>
+      <c r="G244" s="2">
+        <v>13</v>
+      </c>
+      <c r="L244" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A245" s="2">
+        <v>14</v>
+      </c>
+      <c r="B245" s="2">
+        <v>13</v>
+      </c>
+      <c r="C245" s="2">
+        <v>16</v>
+      </c>
+      <c r="D245" s="2">
+        <v>16</v>
+      </c>
+      <c r="G245" s="2">
+        <v>13</v>
+      </c>
+      <c r="L245" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A246" s="2">
+        <v>14</v>
+      </c>
+      <c r="B246" s="2">
+        <v>13</v>
+      </c>
+      <c r="C246" s="2">
+        <v>16</v>
+      </c>
+      <c r="D246" s="2">
+        <v>16</v>
+      </c>
+      <c r="G246" s="2">
+        <v>13</v>
+      </c>
+      <c r="L246" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A247" s="2">
+        <v>14</v>
+      </c>
+      <c r="B247" s="2">
+        <v>13</v>
+      </c>
+      <c r="C247" s="2">
+        <v>16</v>
+      </c>
+      <c r="D247" s="2">
+        <v>16</v>
+      </c>
+      <c r="G247" s="2">
+        <v>13</v>
+      </c>
+      <c r="L247" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A248" s="2">
+        <v>14</v>
+      </c>
+      <c r="B248" s="2">
+        <v>13</v>
+      </c>
+      <c r="C248" s="2">
+        <v>16</v>
+      </c>
+      <c r="D248" s="2">
+        <v>16</v>
+      </c>
+      <c r="G248" s="2">
+        <v>13</v>
+      </c>
+      <c r="L248" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A249" s="2">
+        <v>14</v>
+      </c>
+      <c r="B249" s="2">
+        <v>13</v>
+      </c>
+      <c r="C249" s="2">
+        <v>16</v>
+      </c>
+      <c r="D249" s="2">
+        <v>16</v>
+      </c>
+      <c r="G249" s="2">
+        <v>13</v>
+      </c>
+      <c r="L249" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A250" s="2">
+        <v>14</v>
+      </c>
+      <c r="B250" s="2">
+        <v>13</v>
+      </c>
+      <c r="C250" s="2">
+        <v>16</v>
+      </c>
+      <c r="D250" s="2">
+        <v>16</v>
+      </c>
+      <c r="G250" s="2">
+        <v>13</v>
+      </c>
+      <c r="L250" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A251" s="2">
+        <v>14</v>
+      </c>
+      <c r="B251" s="2">
+        <v>13</v>
+      </c>
+      <c r="C251" s="2">
+        <v>16</v>
+      </c>
+      <c r="D251" s="2">
+        <v>16</v>
+      </c>
+      <c r="G251" s="2">
+        <v>13</v>
+      </c>
+      <c r="L251" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A252" s="2">
+        <v>14</v>
+      </c>
+      <c r="B252" s="2">
+        <v>13</v>
+      </c>
+      <c r="C252" s="2">
+        <v>16</v>
+      </c>
+      <c r="D252" s="2">
+        <v>16</v>
+      </c>
+      <c r="G252" s="2">
+        <v>13</v>
+      </c>
+      <c r="L252" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A253" s="2">
+        <v>14</v>
+      </c>
+      <c r="B253" s="2">
+        <v>13</v>
+      </c>
+      <c r="C253" s="2">
+        <v>16</v>
+      </c>
+      <c r="D253" s="2">
+        <v>16</v>
+      </c>
+      <c r="G253" s="2">
+        <v>13</v>
+      </c>
+      <c r="L253" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A254" s="2">
+        <v>14</v>
+      </c>
+      <c r="B254" s="2">
+        <v>13</v>
+      </c>
+      <c r="C254" s="2">
+        <v>16</v>
+      </c>
+      <c r="D254" s="2">
+        <v>16</v>
+      </c>
+      <c r="G254" s="2">
+        <v>13</v>
+      </c>
+      <c r="L254" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A255" s="2">
+        <v>14</v>
+      </c>
+      <c r="B255" s="2">
+        <v>13</v>
+      </c>
+      <c r="C255" s="2">
+        <v>16</v>
+      </c>
+      <c r="D255" s="2">
+        <v>16</v>
+      </c>
+      <c r="G255" s="2">
+        <v>13</v>
+      </c>
+      <c r="L255" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A256" s="2">
+        <v>14</v>
+      </c>
+      <c r="B256" s="2">
+        <v>13</v>
+      </c>
+      <c r="C256" s="2">
+        <v>16</v>
+      </c>
+      <c r="D256" s="2">
+        <v>16</v>
+      </c>
+      <c r="G256" s="2">
+        <v>13</v>
+      </c>
+      <c r="L256" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A257" s="2">
+        <v>14</v>
+      </c>
+      <c r="B257" s="2">
+        <v>13</v>
+      </c>
+      <c r="C257" s="2">
+        <v>16</v>
+      </c>
+      <c r="D257" s="2">
+        <v>16</v>
+      </c>
+      <c r="G257" s="2">
+        <v>13</v>
+      </c>
+      <c r="L257" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A258" s="2">
+        <v>13</v>
+      </c>
+      <c r="B258" s="2">
+        <v>13</v>
+      </c>
+      <c r="C258" s="2">
+        <v>16</v>
+      </c>
+      <c r="D258" s="2">
+        <v>16</v>
+      </c>
+      <c r="G258" s="2">
+        <v>13</v>
+      </c>
+      <c r="L258" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A259" s="2">
+        <v>13</v>
+      </c>
+      <c r="B259" s="2">
+        <v>13</v>
+      </c>
+      <c r="C259" s="2">
+        <v>16</v>
+      </c>
+      <c r="D259" s="2">
+        <v>16</v>
+      </c>
+      <c r="G259" s="2">
+        <v>13</v>
+      </c>
+      <c r="L259" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A260" s="2">
+        <v>13</v>
+      </c>
+      <c r="C260" s="2">
+        <v>16</v>
+      </c>
+      <c r="D260" s="2">
+        <v>16</v>
+      </c>
+      <c r="L260" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A261" s="2">
+        <v>13</v>
+      </c>
+      <c r="C261" s="2">
+        <v>16</v>
+      </c>
+      <c r="D261" s="2">
+        <v>16</v>
+      </c>
+      <c r="L261" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A262" s="2">
+        <v>13</v>
+      </c>
+      <c r="C262" s="2">
+        <v>16</v>
+      </c>
+      <c r="D262" s="2">
+        <v>16</v>
+      </c>
+      <c r="L262" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A263" s="2">
+        <v>13</v>
+      </c>
+      <c r="C263" s="2">
+        <v>16</v>
+      </c>
+      <c r="D263" s="2">
+        <v>16</v>
+      </c>
+      <c r="L263" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A264" s="2">
+        <v>13</v>
+      </c>
+      <c r="C264" s="2">
+        <v>16</v>
+      </c>
+      <c r="D264" s="2">
+        <v>16</v>
+      </c>
+      <c r="L264" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A265" s="2">
+        <v>13</v>
+      </c>
+      <c r="C265" s="2">
+        <v>16</v>
+      </c>
+      <c r="D265" s="2">
+        <v>16</v>
+      </c>
+      <c r="L265" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A266" s="2">
+        <v>13</v>
+      </c>
+      <c r="C266" s="2">
+        <v>16</v>
+      </c>
+      <c r="D266" s="2">
+        <v>16</v>
+      </c>
+      <c r="L266" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A267" s="2">
+        <v>13</v>
+      </c>
+      <c r="C267" s="2">
+        <v>16</v>
+      </c>
+      <c r="D267" s="2">
+        <v>16</v>
+      </c>
+      <c r="L267" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A268" s="2">
+        <v>13</v>
+      </c>
+      <c r="C268" s="2">
+        <v>16</v>
+      </c>
+      <c r="D268" s="2">
+        <v>16</v>
+      </c>
+      <c r="L268" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A269" s="2">
+        <v>13</v>
+      </c>
+      <c r="C269" s="2">
+        <v>16</v>
+      </c>
+      <c r="D269" s="2">
+        <v>16</v>
+      </c>
+      <c r="L269" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A270" s="2">
+        <v>13</v>
+      </c>
+      <c r="C270" s="2">
+        <v>16</v>
+      </c>
+      <c r="D270" s="2">
+        <v>16</v>
+      </c>
+      <c r="L270" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A271" s="2">
+        <v>13</v>
+      </c>
+      <c r="C271" s="2">
+        <v>16</v>
+      </c>
+      <c r="D271" s="2">
+        <v>16</v>
+      </c>
+      <c r="L271" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A272" s="2">
+        <v>13</v>
+      </c>
+      <c r="C272" s="2">
+        <v>16</v>
+      </c>
+      <c r="D272" s="2">
+        <v>16</v>
+      </c>
+      <c r="L272" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A273" s="2">
+        <v>13</v>
+      </c>
+      <c r="C273" s="2">
+        <v>16</v>
+      </c>
+      <c r="D273" s="2">
+        <v>16</v>
+      </c>
+      <c r="L273" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A274" s="2">
+        <v>13</v>
+      </c>
+      <c r="C274" s="2">
+        <v>16</v>
+      </c>
+      <c r="D274" s="2">
+        <v>16</v>
+      </c>
+      <c r="L274" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A275" s="2">
+        <v>13</v>
+      </c>
+      <c r="C275" s="2">
+        <v>16</v>
+      </c>
+      <c r="D275" s="2">
+        <v>16</v>
+      </c>
+      <c r="L275" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A276" s="2">
+        <v>13</v>
+      </c>
+      <c r="C276" s="2">
+        <v>16</v>
+      </c>
+      <c r="D276" s="2">
+        <v>16</v>
+      </c>
+      <c r="L276" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A277" s="2">
+        <v>13</v>
+      </c>
+      <c r="C277" s="2">
+        <v>16</v>
+      </c>
+      <c r="D277" s="2">
+        <v>16</v>
+      </c>
+      <c r="L277" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A278" s="2">
+        <v>13</v>
+      </c>
+      <c r="C278" s="2">
+        <v>15</v>
+      </c>
+      <c r="D278" s="2">
+        <v>15</v>
+      </c>
+      <c r="L278" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A279" s="2">
+        <v>13</v>
+      </c>
+      <c r="C279" s="2">
+        <v>15</v>
+      </c>
+      <c r="D279" s="2">
+        <v>15</v>
+      </c>
+      <c r="L279" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A280" s="2">
+        <v>13</v>
+      </c>
+      <c r="C280" s="2">
+        <v>15</v>
+      </c>
+      <c r="D280" s="2">
+        <v>15</v>
+      </c>
+      <c r="L280" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A281" s="2">
+        <v>13</v>
+      </c>
+      <c r="C281" s="2">
+        <v>15</v>
+      </c>
+      <c r="D281" s="2">
+        <v>15</v>
+      </c>
+      <c r="L281" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A282" s="2">
+        <v>13</v>
+      </c>
+      <c r="C282" s="2">
+        <v>15</v>
+      </c>
+      <c r="D282" s="2">
+        <v>15</v>
+      </c>
+      <c r="L282" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A283" s="2">
+        <v>13</v>
+      </c>
+      <c r="C283" s="2">
+        <v>15</v>
+      </c>
+      <c r="D283" s="2">
+        <v>15</v>
+      </c>
+      <c r="L283" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A284" s="2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="C284" s="2">
+        <v>15</v>
+      </c>
+      <c r="D284" s="2">
+        <v>15</v>
+      </c>
+      <c r="L284" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A285" s="2">
+        <v>12</v>
+      </c>
+      <c r="C285" s="2">
+        <v>15</v>
+      </c>
+      <c r="D285" s="2">
+        <v>15</v>
+      </c>
+      <c r="L285" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C286" s="2">
+        <v>15</v>
+      </c>
+      <c r="D286" s="2">
+        <v>15</v>
+      </c>
+      <c r="L286" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C287" s="2">
+        <v>15</v>
+      </c>
+      <c r="D287" s="2">
+        <v>15</v>
+      </c>
+      <c r="L287" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C288" s="2">
+        <v>15</v>
+      </c>
+      <c r="D288" s="2">
+        <v>15</v>
+      </c>
+      <c r="L288" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C289" s="2">
+        <v>15</v>
+      </c>
+      <c r="D289" s="2">
+        <v>15</v>
+      </c>
+      <c r="L289" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C290" s="2">
+        <v>15</v>
+      </c>
+      <c r="D290" s="2">
+        <v>15</v>
+      </c>
+      <c r="L290" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C291" s="2">
+        <v>15</v>
+      </c>
+      <c r="D291" s="2">
+        <v>15</v>
+      </c>
+      <c r="L291" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C292" s="2">
+        <v>15</v>
+      </c>
+      <c r="D292" s="2">
+        <v>15</v>
+      </c>
+      <c r="L292" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C293" s="2">
+        <v>15</v>
+      </c>
+      <c r="D293" s="2">
+        <v>15</v>
+      </c>
+      <c r="L293" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C294" s="2">
+        <v>15</v>
+      </c>
+      <c r="D294" s="2">
+        <v>15</v>
+      </c>
+      <c r="L294" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C295" s="2">
+        <v>15</v>
+      </c>
+      <c r="D295" s="2">
+        <v>15</v>
+      </c>
+      <c r="L295" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C296" s="2">
+        <v>15</v>
+      </c>
+      <c r="D296" s="2">
+        <v>15</v>
+      </c>
+      <c r="L296" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C297" s="2">
+        <v>15</v>
+      </c>
+      <c r="D297" s="2">
+        <v>15</v>
+      </c>
+      <c r="L297" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C298" s="2">
+        <v>15</v>
+      </c>
+      <c r="D298" s="2">
+        <v>15</v>
+      </c>
+      <c r="L298" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C299" s="2">
+        <v>15</v>
+      </c>
+      <c r="D299" s="2">
+        <v>15</v>
+      </c>
+      <c r="L299" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="300" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C300" s="2">
+        <v>15</v>
+      </c>
+      <c r="D300" s="2">
+        <v>15</v>
+      </c>
+      <c r="L300" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C301" s="2">
+        <v>15</v>
+      </c>
+      <c r="D301" s="2">
+        <v>15</v>
+      </c>
+      <c r="L301" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C302" s="2">
+        <v>15</v>
+      </c>
+      <c r="D302" s="2">
+        <v>14</v>
+      </c>
+      <c r="L302" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C303" s="2">
+        <v>15</v>
+      </c>
+      <c r="D303" s="2">
+        <v>14</v>
+      </c>
+      <c r="L303" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C304" s="2">
+        <v>15</v>
+      </c>
+      <c r="D304" s="2">
+        <v>14</v>
+      </c>
+      <c r="L304" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C305" s="2">
+        <v>15</v>
+      </c>
+      <c r="D305" s="2">
+        <v>14</v>
+      </c>
+      <c r="L305" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C306" s="2">
+        <v>15</v>
+      </c>
+      <c r="D306" s="2">
+        <v>14</v>
+      </c>
+      <c r="L306" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C307" s="2">
+        <v>15</v>
+      </c>
+      <c r="D307" s="2">
+        <v>14</v>
+      </c>
+      <c r="L307" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C308" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="309" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C309" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C310" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C311" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C312" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C313" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C314" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="315" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C315" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C316" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="317" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C317" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C318" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C319" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C320" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C321" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C322" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C323" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C324" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C325" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C326" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C327" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C328" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C329" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C330" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C331" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C332" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C333" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C334" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C335" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C336" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C337" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C338" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C339" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C340" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C341" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C342" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C343" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C344" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C345" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C346" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C347" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C348" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C349" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C350" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C351" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C352" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C353" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C354" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C355" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C356" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C357" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C358" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C359" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C360" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C361" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C362" s="2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B3">
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C363" s="2">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>35</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C364" s="2"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C365" s="2"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C366" s="2"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C367" s="2"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C368" s="2"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C369" s="2"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C370" s="2"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C371" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="L1:L317">
+    <sortState ref="L2:L798">
+      <sortCondition descending="1" ref="L1:L798"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
